--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\nsblextracter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B616914-5C4E-4067-8708-4D9C012C3E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE5E9E-2BE8-45CC-B809-88745C590258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
-    <sheet name="runsheet" sheetId="5" r:id="rId1"/>
-    <sheet name="scoresheet" sheetId="10" r:id="rId2"/>
+    <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
+    <sheet name="runsheet-a" sheetId="11" r:id="rId2"/>
+    <sheet name="scoresheet" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>COURT 1</t>
   </si>
@@ -254,13 +255,31 @@
   </si>
   <si>
     <t>GRADES _year_group_</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>745pm</t>
+  </si>
+  <si>
+    <t>_7_c1_s_</t>
+  </si>
+  <si>
+    <t>_7_c2_s_</t>
+  </si>
+  <si>
+    <t>_745_c1_s_</t>
+  </si>
+  <si>
+    <t>_745_c2_s_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,13 +368,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -909,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,105 +1022,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1126,6 +1050,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1522,291 +1530,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,13 +1796,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BC4CC0-FE9D-498F-AEB1-D5F0C0522F79}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F774DF-630E-4CCD-B16A-123A9D720A00}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -1854,23 +1964,23 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1879,24 +1989,24 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="S3" s="86" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
       <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1910,25 +2020,25 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1942,25 +2052,25 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
       <c r="R5" s="26"/>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1974,25 +2084,25 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2007,18 +2117,18 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="61" t="s">
+      <c r="Q7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -2028,33 +2138,33 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="79"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="80" t="s">
+      <c r="Q8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
       <c r="T8" s="26"/>
       <c r="U8" s="41"/>
       <c r="V8" s="26"/>
@@ -2078,24 +2188,24 @@
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="76"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2118,38 +2228,38 @@
         <v>4</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75" t="s">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="74" t="s">
+      <c r="N10" s="79"/>
+      <c r="O10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75" t="s">
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="76"/>
-      <c r="S10" s="74" t="s">
+      <c r="R10" s="79"/>
+      <c r="S10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75" t="s">
+      <c r="T10" s="78"/>
+      <c r="U10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75" t="s">
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="76"/>
+      <c r="Z10" s="79"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
@@ -2356,18 +2466,18 @@
       <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="19"/>
       <c r="L15" s="10">
         <v>5</v>
@@ -2402,15 +2512,15 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="24">
         <v>1</v>
       </c>
@@ -2460,15 +2570,15 @@
       <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="21"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2508,11 +2618,11 @@
       <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="21"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2552,11 +2662,11 @@
       <c r="Z18" s="18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="60"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="21"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2596,11 +2706,11 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="21"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2640,11 +2750,11 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2684,11 +2794,11 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="21"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2728,11 +2838,11 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="21"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2772,11 +2882,11 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="21"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2816,11 +2926,11 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="21"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2860,11 +2970,11 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="21"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2904,11 +3014,11 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="60"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="21"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2948,11 +3058,11 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="60"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="21"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2992,20 +3102,20 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="19"/>
       <c r="L29" s="10">
         <v>19</v>
@@ -3346,18 +3456,18 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="19"/>
       <c r="L36" s="10">
         <v>26</v>
@@ -3392,15 +3502,15 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="64" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="24">
         <v>1</v>
       </c>
@@ -3450,15 +3560,15 @@
       <c r="Z37" s="18"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="21"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3498,11 +3608,11 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="21"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3542,11 +3652,11 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="60"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="21"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3586,11 +3696,11 @@
       <c r="Z40" s="18"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="60"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="21"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3630,11 +3740,11 @@
       <c r="Z41" s="18"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="60"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="21"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -3674,11 +3784,11 @@
       <c r="Z42" s="18"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="60"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="21"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3718,11 +3828,11 @@
       <c r="Z43" s="18"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="60"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="21"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -3762,11 +3872,11 @@
       <c r="Z44" s="18"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="21"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -3806,11 +3916,11 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="60"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="21"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3850,11 +3960,11 @@
       <c r="Z46" s="18"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="60"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="21"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -3894,11 +4004,11 @@
       <c r="Z47" s="18"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="60"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="21"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3938,11 +4048,11 @@
       <c r="Z48" s="18"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="60"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="21"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -3983,11 +4093,11 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -4029,21 +4139,21 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -4063,78 +4173,78 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="57" t="s">
+      <c r="L52" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="56" t="s">
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56" t="s">
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="57" t="s">
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -4266,93 +4376,6 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:D50"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="B53:D53"/>
@@ -4369,6 +4392,93 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="S52:T52"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <pageMargins left="0.47" right="0.36" top="0.47" bottom="0.21" header="0.2" footer="0.21"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\nsblextracter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE5E9E-2BE8-45CC-B809-88745C590258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A473E-7E28-4118-A7E1-91B32965968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -1034,6 +1034,90 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1050,90 +1134,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,8 +1790,9 @@
       <c r="E20" s="49"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1799,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BC4CC0-FE9D-498F-AEB1-D5F0C0522F79}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1920,12 @@
       <c r="B20" s="49"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="2" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -1932,7 +1937,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1964,23 +1969,23 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
       <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1989,24 +1994,24 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="S3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
       <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2020,25 +2025,25 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2052,25 +2057,25 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
       <c r="R5" s="26"/>
-      <c r="S5" s="58" t="s">
+      <c r="S5" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2084,25 +2089,25 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2117,18 +2122,18 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -2151,20 +2156,20 @@
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="26"/>
       <c r="U8" s="41"/>
       <c r="V8" s="26"/>
@@ -2174,38 +2179,38 @@
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="81"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2228,38 +2233,38 @@
         <v>4</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78" t="s">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="77" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78" t="s">
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="79"/>
-      <c r="S10" s="77" t="s">
+      <c r="R10" s="74"/>
+      <c r="S10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78" t="s">
+      <c r="T10" s="73"/>
+      <c r="U10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="77" t="s">
+      <c r="V10" s="74"/>
+      <c r="W10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="79"/>
+      <c r="Z10" s="74"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
@@ -2466,18 +2471,18 @@
       <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="19"/>
       <c r="L15" s="10">
         <v>5</v>
@@ -2512,15 +2517,15 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="82" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="24">
         <v>1</v>
       </c>
@@ -2570,15 +2575,15 @@
       <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="62"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="21"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2618,11 +2623,11 @@
       <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="21"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2662,11 +2667,11 @@
       <c r="Z18" s="18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="21"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2706,11 +2711,11 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="21"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2750,11 +2755,11 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2794,11 +2799,11 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="62"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="21"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2838,11 +2843,11 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="21"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2882,11 +2887,11 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="21"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2926,11 +2931,11 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="21"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2970,11 +2975,11 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="21"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -3014,11 +3019,11 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="21"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -3058,11 +3063,11 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="21"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -3150,20 +3155,20 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="19"/>
       <c r="L30" s="10">
         <v>20</v>
@@ -3456,18 +3461,18 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="19"/>
       <c r="L36" s="10">
         <v>26</v>
@@ -3502,15 +3507,15 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="82" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="24">
         <v>1</v>
       </c>
@@ -3560,15 +3565,15 @@
       <c r="Z37" s="18"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="21"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3608,11 +3613,11 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="21"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3652,11 +3657,11 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="62"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="21"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3696,11 +3701,11 @@
       <c r="Z40" s="18"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="21"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3740,11 +3745,11 @@
       <c r="Z41" s="18"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="62"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="21"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -3784,11 +3789,11 @@
       <c r="Z42" s="18"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="62"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="21"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3828,11 +3833,11 @@
       <c r="Z43" s="18"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="62"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="21"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -3872,11 +3877,11 @@
       <c r="Z44" s="18"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="21"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -3916,11 +3921,11 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="62"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="21"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3960,11 +3965,11 @@
       <c r="Z46" s="18"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="62"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="21"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -4004,11 +4009,11 @@
       <c r="Z47" s="18"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="62"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="21"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4048,11 +4053,11 @@
       <c r="Z48" s="18"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="62"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="21"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4093,11 +4098,11 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -4139,21 +4144,21 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -4173,78 +4178,78 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="87" t="s">
+      <c r="L52" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="86" t="s">
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86" t="s">
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="87" t="s">
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -4376,6 +4381,93 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="B53:D53"/>
@@ -4392,95 +4484,9 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="S52:T52"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.36" top="0.47" bottom="0.21" header="0.2" footer="0.21"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baske\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA6EA3-AC68-4EA1-8CDA-E3C50F55C081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CBDB96-6E83-47F4-A584-BAFA1E89E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
-    <sheet name="runsheet-a" sheetId="11" r:id="rId2"/>
-    <sheet name="scoresheet" sheetId="10" r:id="rId3"/>
+    <sheet name="scoresheet" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+  <si>
+    <t>Time &amp; Grade/Year</t>
+  </si>
   <si>
     <t>COURT 1</t>
   </si>
@@ -47,136 +51,19 @@
     <t>9am Years 3/4</t>
   </si>
   <si>
-    <t>10am Years 3/4</t>
+    <t>_9_c1_s_</t>
   </si>
   <si>
-    <t>12pm Years 5/6</t>
-  </si>
-  <si>
-    <t>2pm Years 7/8</t>
-  </si>
-  <si>
-    <t>4pm Years 9-12</t>
-  </si>
-  <si>
-    <t>5pm Years 9-12</t>
-  </si>
-  <si>
-    <t>6pm Years 9-12</t>
-  </si>
-  <si>
-    <t>11am Years 5/6</t>
+    <t>_9_c2_s_</t>
   </si>
   <si>
     <t>1pm Years 7/8</t>
   </si>
   <si>
-    <t>3pm Years 9-12</t>
+    <t>_1_c1_b_</t>
   </si>
   <si>
-    <t>Time &amp; Grade/Year</t>
-  </si>
-  <si>
-    <t>WINNING TEAM:</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Full Time</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>FINAL SCORE:</t>
-  </si>
-  <si>
-    <t>Second Half</t>
-  </si>
-  <si>
-    <t>First Half</t>
-  </si>
-  <si>
-    <t>SCORES</t>
-  </si>
-  <si>
-    <t>Name of Player</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>FOULS</t>
-  </si>
-  <si>
-    <t>Team Fouls</t>
-  </si>
-  <si>
-    <t>Time Outs</t>
-  </si>
-  <si>
-    <t>_team_black_</t>
-  </si>
-  <si>
-    <t>RUNNING SCORE</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>_team_white_</t>
-  </si>
-  <si>
-    <t>_time_</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>_court_</t>
-  </si>
-  <si>
-    <t>_team_white_title_</t>
-  </si>
-  <si>
-    <t>_team_black_title_</t>
-  </si>
-  <si>
-    <t>_a_player_name_</t>
-  </si>
-  <si>
-    <t>_a_player_num_</t>
-  </si>
-  <si>
-    <t>_b_player_num_</t>
-  </si>
-  <si>
-    <t>_b_player_name_</t>
-  </si>
-  <si>
-    <t>_venue_</t>
-  </si>
-  <si>
-    <t>_date_</t>
-  </si>
-  <si>
-    <t>_9_c1_s_</t>
-  </si>
-  <si>
-    <t>_9_c2_s_</t>
+    <t>10am Years 3/4</t>
   </si>
   <si>
     <t>_10_c1_s_</t>
@@ -185,13 +72,25 @@
     <t>_10_c2_s_</t>
   </si>
   <si>
+    <t>2pm Years 7/8</t>
+  </si>
+  <si>
+    <t>_2_c1_b_</t>
+  </si>
+  <si>
     <t>11am Years 3/4</t>
   </si>
   <si>
     <t>_11_c1_s_</t>
   </si>
   <si>
+    <t>11am Years 5/6</t>
+  </si>
+  <si>
     <t>_11_c2_s_</t>
+  </si>
+  <si>
+    <t>12pm Years 5/6</t>
   </si>
   <si>
     <t>_12_c1_s_</t>
@@ -209,16 +108,34 @@
     <t>_1_c2_s_</t>
   </si>
   <si>
+    <t>_1_c2_b_</t>
+  </si>
+  <si>
+    <t>2pm Years 5/6</t>
+  </si>
+  <si>
     <t>_2_c1_s_</t>
   </si>
   <si>
     <t>_2_c2_s_</t>
   </si>
   <si>
+    <t>_2_c2_b_</t>
+  </si>
+  <si>
+    <t>3pm Years 7/8</t>
+  </si>
+  <si>
     <t>_3_c1_s_</t>
   </si>
   <si>
+    <t>3pm Years 9-12</t>
+  </si>
+  <si>
     <t>_3_c2_s_</t>
+  </si>
+  <si>
+    <t>4pm Years 9-12</t>
   </si>
   <si>
     <t>_4_c1_s_</t>
@@ -227,10 +144,16 @@
     <t>_4_c2_s_</t>
   </si>
   <si>
+    <t>5pm Years 9-12</t>
+  </si>
+  <si>
     <t>_5_c1_s_</t>
   </si>
   <si>
     <t>_5_c2_s_</t>
+  </si>
+  <si>
+    <t>6pm Years 9-12</t>
   </si>
   <si>
     <t>_6_c1_s_</t>
@@ -239,47 +162,113 @@
     <t>_6_c2_s_</t>
   </si>
   <si>
-    <t>_1_c1_b_</t>
-  </si>
-  <si>
-    <t>_2_c1_b_</t>
-  </si>
-  <si>
-    <t>_1_c2_b_</t>
-  </si>
-  <si>
-    <t>_2_c2_b_</t>
-  </si>
-  <si>
     <t>GRADES _year_group_</t>
   </si>
   <si>
-    <t>7pm</t>
+    <t>_team_white_title_</t>
   </si>
   <si>
-    <t>745pm</t>
+    <t>_team_black_title_</t>
   </si>
   <si>
-    <t>_7_c1_s_</t>
+    <t>Team A</t>
   </si>
   <si>
-    <t>_7_c2_s_</t>
+    <t>Team B</t>
   </si>
   <si>
-    <t>_745_c1_s_</t>
+    <t>_venue_</t>
   </si>
   <si>
-    <t>_745_c2_s_</t>
+    <t>_court_</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>_date_</t>
+  </si>
+  <si>
+    <t>_time_</t>
+  </si>
+  <si>
+    <t>_team_white_</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time Outs</t>
+  </si>
+  <si>
+    <t>Team Fouls</t>
+  </si>
+  <si>
+    <t>RUNNING SCORE</t>
+  </si>
+  <si>
+    <t>First Half</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Second Half</t>
   </si>
   <si>
     <t>Extra Periods</t>
+  </si>
+  <si>
+    <t>FOULS</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name of Player</t>
+  </si>
+  <si>
+    <t>_a_player_num_</t>
+  </si>
+  <si>
+    <t>_a_player_name_</t>
+  </si>
+  <si>
+    <t>_team_black_</t>
+  </si>
+  <si>
+    <t>_b_player_num_</t>
+  </si>
+  <si>
+    <t>_b_player_name_</t>
+  </si>
+  <si>
+    <t>SCORES</t>
+  </si>
+  <si>
+    <t>FINAL SCORE:</t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>WINNING TEAM:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,37 +367,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -943,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,6 +1048,39 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,6 +1091,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,15 +1127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,63 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,8 +1267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="3198865"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3141715"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1560,8 +1506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="3365553"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3303640"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1748,8 +1694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="3532240"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3465565"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1936,8 +1882,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="3698928"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3627490"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2124,8 +2070,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="3865615"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3789415"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2312,8 +2258,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4032303"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="3951340"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2500,8 +2446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4198990"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4113265"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2688,8 +2634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4365678"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4275190"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2876,8 +2822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4532365"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4437115"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3064,8 +3010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4699053"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4599040"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3252,8 +3198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="4865740"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4760965"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3440,8 +3386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="5032428"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="4922890"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3628,8 +3574,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="6961240"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="6799315"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3816,8 +3762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="6794553"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="6637390"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4004,8 +3950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7127928"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="6961240"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4192,8 +4138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7294615"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7123165"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4380,8 +4326,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7461303"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7285090"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4568,8 +4514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7627990"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7447015"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4756,8 +4702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7794678"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7608940"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4944,8 +4890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="7961365"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7770865"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5132,8 +5078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="8128053"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="7932790"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5320,8 +5266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="8294740"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="8094715"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5508,8 +5454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="8461428"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="8256640"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5696,8 +5642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="305566" y="8628115"/>
-          <a:ext cx="417183" cy="108000"/>
+          <a:off x="300803" y="8418565"/>
+          <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -6160,260 +6106,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="23.45">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="23.45">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="23.45">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="23.45">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="23.45">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="23.45">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>57</v>
+    <row r="7" spans="1:7" ht="23.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>59</v>
+    <row r="8" spans="1:7" ht="23.25">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="23.45">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="23.45">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="23.45">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="22.9">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="22.9">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="22.9">
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="22.9">
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="22.9">
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="4:5" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" ht="22.9">
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
     </row>
-    <row r="18" spans="4:5" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" ht="22.9">
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="4:5" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" ht="22.9">
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="4:5" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" ht="22.9">
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
     </row>
@@ -6425,132 +6371,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BC4CC0-FE9D-498F-AEB1-D5F0C0522F79}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="33.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A2" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A3" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-    </row>
-    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-    </row>
-    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F774DF-630E-4CCD-B16A-123A9D720A00}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6561,23 +6381,23 @@
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="1.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="4" style="8" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="7" customWidth="1"/>
     <col min="6" max="10" width="2" style="7" customWidth="1"/>
-    <col min="11" max="19" width="3.109375" style="8" customWidth="1"/>
+    <col min="11" max="19" width="3.140625" style="8" customWidth="1"/>
     <col min="20" max="21" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3.109375" style="8" customWidth="1"/>
+    <col min="22" max="23" width="3.140625" style="8" customWidth="1"/>
     <col min="24" max="25" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.109375" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="7"/>
+    <col min="26" max="26" width="3.140625" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="33" customHeight="1">
       <c r="A1" s="33"/>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
@@ -6588,52 +6408,52 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="K1" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
       <c r="Z1" s="29"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="28"/>
       <c r="Z2" s="27"/>
     </row>
-    <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="13.9" thickBot="1">
       <c r="A3" s="28"/>
-      <c r="K3" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="S3" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
+      <c r="K3" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="S3" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
       <c r="Z3" s="27"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.9">
       <c r="A4" s="21"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
@@ -6644,28 +6464,28 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
+      <c r="K4" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
+      <c r="S4" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
       <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.6" thickBot="1">
       <c r="A5" s="21"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -6676,28 +6496,28 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
+      <c r="K5" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="S5" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="21"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -6708,28 +6528,28 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
+      <c r="K6" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="20"/>
-      <c r="S6" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="S6" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="13.9" thickBot="1">
       <c r="A7" s="21"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -6741,18 +6561,18 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82"/>
+      <c r="L7" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="80"/>
-      <c r="S7" s="82"/>
+      <c r="Q7" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="63"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -6761,34 +6581,34 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="25"/>
     </row>
-    <row r="8" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+    <row r="8" spans="1:26" ht="16.149999999999999" thickBot="1">
+      <c r="A8" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
+      <c r="L8" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
+      <c r="Q8" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="20"/>
       <c r="U8" s="26"/>
       <c r="V8" s="20"/>
@@ -6797,47 +6617,47 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="25"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
+      <c r="K9" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="84"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="19"/>
       <c r="E10" s="39" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F10" s="41">
         <v>1</v>
@@ -6852,43 +6672,43 @@
         <v>4</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="77"/>
-      <c r="S10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="77"/>
-      <c r="W10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="77"/>
+      <c r="K10" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="78"/>
+      <c r="O10" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="78"/>
+      <c r="S10" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="78"/>
+      <c r="W10" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="78"/>
     </row>
-    <row r="11" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="13.9" thickBot="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="44">
@@ -6937,13 +6757,13 @@
       </c>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="19"/>
       <c r="E12" s="39" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
@@ -6991,10 +6811,10 @@
       </c>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="13.9" thickBot="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="41">
@@ -7043,13 +6863,13 @@
       </c>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="11"/>
       <c r="E14" s="19" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -7089,19 +6909,19 @@
       </c>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="82"/>
+    <row r="15" spans="1:26">
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="F15" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="16"/>
       <c r="L15" s="22">
         <v>5</v>
@@ -7135,16 +6955,16 @@
       </c>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="84"/>
+    <row r="16" spans="1:26">
+      <c r="A16" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="68"/>
       <c r="F16" s="50">
         <v>1</v>
       </c>
@@ -7193,15 +7013,15 @@
       </c>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="82"/>
+    <row r="17" spans="1:26">
+      <c r="A17" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="18" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -7241,11 +7061,11 @@
       </c>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="82"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="11"/>
@@ -7285,11 +7105,11 @@
       </c>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="82"/>
+    <row r="19" spans="1:26">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="11"/>
@@ -7329,11 +7149,11 @@
       </c>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="82"/>
+    <row r="20" spans="1:26">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="11"/>
@@ -7373,11 +7193,11 @@
       </c>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="82"/>
+    <row r="21" spans="1:26">
+      <c r="A21" s="64"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="11"/>
@@ -7417,11 +7237,11 @@
       </c>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="82"/>
+    <row r="22" spans="1:26">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="11"/>
@@ -7461,11 +7281,11 @@
       </c>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="82"/>
+    <row r="23" spans="1:26">
+      <c r="A23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="11"/>
@@ -7505,11 +7325,11 @@
       </c>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="82"/>
+    <row r="24" spans="1:26">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="11"/>
@@ -7549,11 +7369,11 @@
       </c>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="82"/>
+    <row r="25" spans="1:26">
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="11"/>
@@ -7593,11 +7413,11 @@
       </c>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="82"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="11"/>
@@ -7637,11 +7457,11 @@
       </c>
       <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="82"/>
+    <row r="27" spans="1:26">
+      <c r="A27" s="64"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="11"/>
@@ -7681,11 +7501,11 @@
       </c>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="82"/>
+    <row r="28" spans="1:26" ht="13.9" thickBot="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="11"/>
@@ -7725,21 +7545,21 @@
       </c>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+    <row r="29" spans="1:26" ht="16.149999999999999" thickBot="1">
+      <c r="A29" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="16"/>
       <c r="L29" s="22">
         <v>19</v>
@@ -7773,20 +7593,20 @@
       </c>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+    <row r="30" spans="1:26" ht="13.9" thickBot="1">
+      <c r="A30" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="40"/>
       <c r="K30" s="16"/>
       <c r="L30" s="22">
@@ -7821,13 +7641,13 @@
       </c>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="13.9" thickBot="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="19"/>
       <c r="E31" s="39" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F31" s="41">
         <v>1</v>
@@ -7875,10 +7695,10 @@
       </c>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="13.9" thickBot="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="44">
@@ -7927,13 +7747,13 @@
       </c>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="13.9" thickBot="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="19"/>
       <c r="E33" s="39" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F33" s="47">
         <v>1</v>
@@ -7981,10 +7801,10 @@
       </c>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="13.9" thickBot="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="41">
@@ -8033,13 +7853,13 @@
       </c>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="21"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="11"/>
       <c r="E35" s="19" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="19"/>
@@ -8079,19 +7899,19 @@
       </c>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="82"/>
+    <row r="36" spans="1:26">
+      <c r="A36" s="61"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="F36" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
       <c r="K36" s="16"/>
       <c r="L36" s="22">
         <v>26</v>
@@ -8125,16 +7945,16 @@
       </c>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="84"/>
+    <row r="37" spans="1:26">
+      <c r="A37" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="68"/>
       <c r="F37" s="50">
         <v>1</v>
       </c>
@@ -8183,15 +8003,15 @@
       </c>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="82"/>
+    <row r="38" spans="1:26">
+      <c r="A38" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="11"/>
@@ -8231,11 +8051,11 @@
       </c>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="82"/>
+    <row r="39" spans="1:26">
+      <c r="A39" s="64"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="11"/>
@@ -8275,11 +8095,11 @@
       </c>
       <c r="Z39" s="15"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="82"/>
+    <row r="40" spans="1:26">
+      <c r="A40" s="64"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="11"/>
@@ -8319,11 +8139,11 @@
       </c>
       <c r="Z40" s="15"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
+    <row r="41" spans="1:26">
+      <c r="A41" s="64"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="11"/>
@@ -8363,11 +8183,11 @@
       </c>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="82"/>
+    <row r="42" spans="1:26">
+      <c r="A42" s="64"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="11"/>
@@ -8407,11 +8227,11 @@
       </c>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="82"/>
+    <row r="43" spans="1:26">
+      <c r="A43" s="64"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="11"/>
@@ -8451,11 +8271,11 @@
       </c>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
+    <row r="44" spans="1:26">
+      <c r="A44" s="64"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="11"/>
@@ -8495,11 +8315,11 @@
       </c>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="82"/>
+    <row r="45" spans="1:26">
+      <c r="A45" s="64"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="11"/>
@@ -8539,11 +8359,11 @@
       </c>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="82"/>
+    <row r="46" spans="1:26">
+      <c r="A46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="11"/>
@@ -8583,11 +8403,11 @@
       </c>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
+    <row r="47" spans="1:26">
+      <c r="A47" s="64"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="11"/>
@@ -8627,11 +8447,11 @@
       </c>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="82"/>
+    <row r="48" spans="1:26">
+      <c r="A48" s="64"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="11"/>
@@ -8671,11 +8491,11 @@
       </c>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="82"/>
+    <row r="49" spans="1:26">
+      <c r="A49" s="64"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="11"/>
@@ -8715,13 +8535,13 @@
       </c>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
+    <row r="50" spans="1:26" ht="15" customHeight="1">
+      <c r="A50" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -8761,23 +8581,23 @@
       </c>
       <c r="Z50" s="12"/>
     </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="82"/>
+    <row r="51" spans="1:26" ht="15" customHeight="1">
+      <c r="A51" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
+        <v>59</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -8795,83 +8615,83 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
     </row>
-    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="82"/>
+    <row r="52" spans="1:26" ht="15" customHeight="1">
+      <c r="A52" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
+        <v>59</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
+    <row r="53" spans="1:26" ht="15" customHeight="1">
+      <c r="A53" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
+        <v>59</v>
+      </c>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="D55" s="9"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -8890,7 +8710,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -8908,7 +8728,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -8926,7 +8746,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -8944,7 +8764,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -8962,7 +8782,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -8980,7 +8800,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -9000,6 +8820,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -9024,95 +8933,6 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baske\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CBDB96-6E83-47F4-A584-BAFA1E89E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E65F298-6809-4F8A-9967-3A8AF9B93D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Time &amp; Grade/Year</t>
   </si>
@@ -57,9 +57,6 @@
     <t>_9_c2_s_</t>
   </si>
   <si>
-    <t>1pm Years 7/8</t>
-  </si>
-  <si>
     <t>_1_c1_b_</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>_10_c2_s_</t>
-  </si>
-  <si>
-    <t>2pm Years 7/8</t>
   </si>
   <si>
     <t>_2_c1_b_</t>
@@ -115,6 +109,9 @@
   </si>
   <si>
     <t>_2_c1_s_</t>
+  </si>
+  <si>
+    <t>2pm Years 7/8</t>
   </si>
   <si>
     <t>_2_c2_s_</t>
@@ -901,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,39 +1045,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,27 +1055,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,6 +1070,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,6 +1098,57 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6106,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="14.45"/>
@@ -6118,7 +6121,7 @@
     <col min="4" max="4" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.45">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6139,7 +6142,7 @@
       </c>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="23.45">
+    <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -6152,64 +6155,60 @@
       <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="92"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="23.45">
+    <row r="3" spans="1:7" ht="23.25">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="92"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="23.45">
+    <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7" ht="23.45">
+    <row r="5" spans="1:7" ht="23.25">
       <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -6219,105 +6218,101 @@
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" ht="23.45">
+    <row r="6" spans="1:7" ht="23.25">
       <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="E6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>23</v>
-      </c>
+      <c r="F6" s="92"/>
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="23.25">
       <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>27</v>
-      </c>
+      <c r="F7" s="92"/>
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="23.25">
       <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="23.45">
       <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="23.45">
       <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="23.45">
       <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="34"/>
     </row>
@@ -6364,6 +6359,12 @@
       <c r="E20" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6408,23 +6409,23 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
+      <c r="K1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26">
@@ -6433,24 +6434,24 @@
     </row>
     <row r="3" spans="1:26" ht="13.9" thickBot="1">
       <c r="A3" s="28"/>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="S3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="S3" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:26" ht="13.9">
@@ -6464,25 +6465,25 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="25"/>
     </row>
     <row r="5" spans="1:26" ht="15.6" thickBot="1">
@@ -6496,25 +6497,25 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="Z5" s="25"/>
     </row>
     <row r="6" spans="1:26">
@@ -6528,25 +6529,25 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
       <c r="Z6" s="25"/>
     </row>
     <row r="7" spans="1:26" ht="13.9" thickBot="1">
@@ -6561,18 +6562,18 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="62"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -6582,33 +6583,33 @@
       <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" ht="16.149999999999999" thickBot="1">
-      <c r="A8" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71" t="s">
+      <c r="A8" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="81" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="20"/>
       <c r="U8" s="26"/>
       <c r="V8" s="20"/>
@@ -6618,46 +6619,46 @@
       <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="84"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="66"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="19"/>
       <c r="E10" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="41">
         <v>1</v>
@@ -6672,43 +6673,43 @@
         <v>4</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="74" t="s">
+      <c r="N10" s="77"/>
+      <c r="O10" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="78"/>
-      <c r="S10" s="74" t="s">
+      <c r="R10" s="77"/>
+      <c r="S10" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="78"/>
-      <c r="W10" s="74" t="s">
+      <c r="V10" s="77"/>
+      <c r="W10" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="78"/>
+      <c r="Z10" s="77"/>
     </row>
     <row r="11" spans="1:26" ht="13.9" thickBot="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="44">
@@ -6759,11 +6760,11 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="19"/>
       <c r="E12" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
@@ -6813,8 +6814,8 @@
     </row>
     <row r="13" spans="1:26" ht="13.9" thickBot="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="41">
@@ -6865,11 +6866,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="11"/>
       <c r="E14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -6910,18 +6911,18 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
+      <c r="F15" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="16"/>
       <c r="L15" s="22">
         <v>5</v>
@@ -6956,15 +6957,15 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="50">
         <v>1</v>
       </c>
@@ -7014,14 +7015,14 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -7062,10 +7063,10 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="64"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="11"/>
@@ -7106,10 +7107,10 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="64"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="11"/>
@@ -7150,10 +7151,10 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="64"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="11"/>
@@ -7194,10 +7195,10 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="64"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="11"/>
@@ -7238,10 +7239,10 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="64"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="11"/>
@@ -7282,10 +7283,10 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="64"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="11"/>
@@ -7326,10 +7327,10 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="64"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="11"/>
@@ -7370,10 +7371,10 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="64"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="11"/>
@@ -7414,10 +7415,10 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="64"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="11"/>
@@ -7458,10 +7459,10 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="64"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="11"/>
@@ -7502,10 +7503,10 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="11"/>
@@ -7546,20 +7547,20 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="1:26" ht="16.149999999999999" thickBot="1">
-      <c r="A29" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="16"/>
       <c r="L29" s="22">
         <v>19</v>
@@ -7594,19 +7595,19 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="40"/>
       <c r="K30" s="16"/>
       <c r="L30" s="22">
@@ -7643,11 +7644,11 @@
     </row>
     <row r="31" spans="1:26" ht="13.9" thickBot="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="19"/>
       <c r="E31" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="41">
         <v>1</v>
@@ -7697,8 +7698,8 @@
     </row>
     <row r="32" spans="1:26" ht="13.9" thickBot="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="44">
@@ -7749,11 +7750,11 @@
     </row>
     <row r="33" spans="1:26" ht="13.9" thickBot="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="19"/>
       <c r="E33" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="47">
         <v>1</v>
@@ -7803,8 +7804,8 @@
     </row>
     <row r="34" spans="1:26" ht="13.9" thickBot="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="41">
@@ -7855,11 +7856,11 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="21"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="11"/>
       <c r="E35" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="19"/>
@@ -7900,18 +7901,18 @@
       <c r="Z35" s="15"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="61"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
+      <c r="F36" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
       <c r="K36" s="16"/>
       <c r="L36" s="22">
         <v>26</v>
@@ -7946,15 +7947,15 @@
       <c r="Z36" s="15"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="85"/>
       <c r="F37" s="50">
         <v>1</v>
       </c>
@@ -8004,14 +8005,14 @@
       <c r="Z37" s="15"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="82"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="11"/>
@@ -8052,10 +8053,10 @@
       <c r="Z38" s="15"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="64"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="11"/>
@@ -8096,10 +8097,10 @@
       <c r="Z39" s="15"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="64"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="11"/>
@@ -8140,10 +8141,10 @@
       <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="64"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="11"/>
@@ -8184,10 +8185,10 @@
       <c r="Z41" s="15"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="64"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="11"/>
@@ -8228,10 +8229,10 @@
       <c r="Z42" s="15"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="64"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="11"/>
@@ -8272,10 +8273,10 @@
       <c r="Z43" s="15"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="64"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="11"/>
@@ -8316,10 +8317,10 @@
       <c r="Z44" s="15"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="64"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="11"/>
@@ -8360,10 +8361,10 @@
       <c r="Z45" s="15"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="64"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="82"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="11"/>
@@ -8404,10 +8405,10 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="64"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="11"/>
@@ -8448,10 +8449,10 @@
       <c r="Z47" s="15"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="64"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="11"/>
@@ -8492,10 +8493,10 @@
       <c r="Z48" s="15"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="64"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="11"/>
@@ -8536,12 +8537,12 @@
       <c r="Z49" s="15"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
+      <c r="A50" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -8582,22 +8583,22 @@
       <c r="Z50" s="12"/>
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="57" t="s">
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -8616,79 +8617,79 @@
       <c r="Z51" s="10"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1">
-      <c r="A52" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="65" t="s">
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26">
@@ -8820,95 +8821,6 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -8933,6 +8845,95 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baske\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E65F298-6809-4F8A-9967-3A8AF9B93D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB580C4-60E6-48D0-9495-D5FF164767BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Time &amp; Grade/Year</t>
   </si>
@@ -48,6 +48,9 @@
     <t>COURT 2</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>9am Years 3/4</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>_9_c2_s_</t>
+  </si>
+  <si>
+    <t>1pm</t>
   </si>
   <si>
     <t>_1_c1_b_</t>
@@ -67,6 +73,9 @@
   </si>
   <si>
     <t>_10_c2_s_</t>
+  </si>
+  <si>
+    <t>2pm</t>
   </si>
   <si>
     <t>_2_c1_b_</t>
@@ -198,9 +207,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Time Outs</t>
   </si>
   <si>
@@ -265,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +335,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +363,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="8">
@@ -409,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -436,32 +450,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -893,12 +881,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,86 +1038,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,22 +1111,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,88 +1132,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,20 +1159,135 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,15 +1312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15039</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>153021</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1211,8 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9524" y="0"/>
-          <a:ext cx="1529515" cy="1446416"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1695450" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,7 +1409,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3141715"/>
+          <a:off x="300803" y="3208390"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -1509,7 +1648,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3303640"/>
+          <a:off x="300803" y="3370315"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -1697,7 +1836,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3465565"/>
+          <a:off x="300803" y="3532240"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -1885,7 +2024,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3627490"/>
+          <a:off x="300803" y="3694165"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -2073,7 +2212,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3789415"/>
+          <a:off x="300803" y="3856090"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -2261,7 +2400,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3951340"/>
+          <a:off x="300803" y="4018015"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -2449,7 +2588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4113265"/>
+          <a:off x="300803" y="4179940"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -2637,7 +2776,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4275190"/>
+          <a:off x="300803" y="4341865"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -2825,7 +2964,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4437115"/>
+          <a:off x="300803" y="4503790"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3013,7 +3152,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4599040"/>
+          <a:off x="300803" y="4665715"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3201,7 +3340,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4760965"/>
+          <a:off x="300803" y="4827640"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3383,13 +3522,16 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46678B6F-E93A-48E1-84E7-AE1C85EB225B}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BC5651E0-AD29-42E5-B927-4CE3EFA196A1}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4922890"/>
+          <a:off x="300803" y="4989565"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3577,7 +3719,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="6799315"/>
+          <a:off x="300803" y="6846940"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3765,7 +3907,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="6637390"/>
+          <a:off x="300803" y="6685015"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -3953,7 +4095,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="6961240"/>
+          <a:off x="300803" y="7008865"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -4141,7 +4283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7123165"/>
+          <a:off x="300803" y="7170790"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -4329,7 +4471,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7285090"/>
+          <a:off x="300803" y="7332715"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -4517,7 +4659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7447015"/>
+          <a:off x="300803" y="7494640"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -4705,7 +4847,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7608940"/>
+          <a:off x="300803" y="7656565"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -4893,7 +5035,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7770865"/>
+          <a:off x="300803" y="7818490"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -5081,7 +5223,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7932790"/>
+          <a:off x="300803" y="7980415"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -5269,7 +5411,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8094715"/>
+          <a:off x="300803" y="8142340"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -5457,7 +5599,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8256640"/>
+          <a:off x="300803" y="8304265"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -5645,7 +5787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8418565"/>
+          <a:off x="300803" y="8466190"/>
           <a:ext cx="407658" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
@@ -6109,11 +6251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
@@ -6135,236 +6277,238 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="34"/>
+      <c r="E2" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="23.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="23.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="34"/>
+      <c r="D6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="23.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="23.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:7" ht="23.45">
+    <row r="9" spans="1:7" ht="23.25">
       <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="23.45">
+    <row r="10" spans="1:7" ht="23.25">
       <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="23.45">
+    <row r="11" spans="1:7" ht="23.25">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="22.9">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+    <row r="12" spans="1:7" ht="23.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="22.9">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+    <row r="13" spans="1:7" ht="23.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="22.9">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+    <row r="14" spans="1:7" ht="23.25">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="22.9">
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+    <row r="15" spans="1:7" ht="23.25">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="22.9">
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+    <row r="16" spans="1:7" ht="23.25">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="4:5" ht="22.9">
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+    <row r="17" spans="4:5" ht="23.25">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="4:5" ht="22.9">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+    <row r="18" spans="4:5" ht="23.25">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="4:5" ht="22.9">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+    <row r="19" spans="4:5" ht="23.25">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="4:5" ht="22.9">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+    <row r="20" spans="4:5" ht="23.25">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6376,10 +6520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
@@ -6398,75 +6542,101 @@
     <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="29"/>
+    <row r="1" spans="1:28" ht="33" customHeight="1">
+      <c r="A1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="87"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="28"/>
-      <c r="Z2" s="27"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="25"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="90"/>
     </row>
-    <row r="3" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="K3" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="S3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="27"/>
+    <row r="3" spans="1:28" ht="15.75">
+      <c r="A3" s="25"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="90"/>
     </row>
-    <row r="4" spans="1:26" ht="13.9">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+    <row r="4" spans="1:28" ht="13.9">
+      <c r="A4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="73" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" s="73"/>
       <c r="M4" s="73"/>
@@ -6474,9 +6644,9 @@
       <c r="O4" s="73"/>
       <c r="P4" s="73"/>
       <c r="Q4" s="73"/>
-      <c r="R4" s="20"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T4" s="73"/>
       <c r="U4" s="73"/>
@@ -6484,2212 +6654,2213 @@
       <c r="W4" s="73"/>
       <c r="X4" s="73"/>
       <c r="Y4" s="73"/>
-      <c r="Z4" s="25"/>
+      <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:26" ht="15.6" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="74" t="s">
+    <row r="5" spans="1:28" ht="15.75">
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:28" ht="12.75">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="94"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="23"/>
+      <c r="AB7" s="97"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75">
+      <c r="A8" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A9" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37">
+        <v>2</v>
+      </c>
+      <c r="H10" s="37">
+        <v>3</v>
+      </c>
+      <c r="I10" s="38">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="67"/>
+      <c r="W10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="67"/>
+    </row>
+    <row r="11" spans="1:28" ht="13.9" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="39">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40">
+        <v>6</v>
+      </c>
+      <c r="H11" s="40">
+        <v>7</v>
+      </c>
+      <c r="I11" s="41">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="20">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>41</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20">
+        <v>81</v>
+      </c>
+      <c r="U11" s="20">
+        <v>81</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="20">
+        <v>121</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43">
+        <v>3</v>
+      </c>
+      <c r="I12" s="44">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="20">
+        <v>2</v>
+      </c>
+      <c r="M12" s="20">
+        <v>2</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="20">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>42</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20">
+        <v>82</v>
+      </c>
+      <c r="U12" s="20">
+        <v>82</v>
+      </c>
+      <c r="V12" s="22"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="20">
+        <v>122</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>122</v>
+      </c>
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" ht="13.9" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="36">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37">
+        <v>6</v>
+      </c>
+      <c r="H13" s="37">
+        <v>7</v>
+      </c>
+      <c r="I13" s="38">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="20">
+        <v>3</v>
+      </c>
+      <c r="M13" s="20">
+        <v>3</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="20">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>43</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20">
+        <v>83</v>
+      </c>
+      <c r="U13" s="20">
+        <v>83</v>
+      </c>
+      <c r="V13" s="22"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="20">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>123</v>
+      </c>
+      <c r="Z13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="20">
+        <v>4</v>
+      </c>
+      <c r="M14" s="20">
+        <v>4</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>44</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20">
+        <v>84</v>
+      </c>
+      <c r="U14" s="20">
+        <v>84</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="20">
+        <v>124</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>124</v>
+      </c>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="20">
+        <v>5</v>
+      </c>
+      <c r="M15" s="20">
+        <v>5</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="20">
         <v>45</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="74" t="s">
+      <c r="Q15" s="20">
+        <v>45</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="20">
+        <v>85</v>
+      </c>
+      <c r="U15" s="20">
+        <v>85</v>
+      </c>
+      <c r="V15" s="22"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="20">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>125</v>
+      </c>
+      <c r="Z15" s="13"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2</v>
+      </c>
+      <c r="H16" s="46">
+        <v>3</v>
+      </c>
+      <c r="I16" s="46">
+        <v>4</v>
+      </c>
+      <c r="J16" s="47">
+        <v>5</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="20">
+        <v>6</v>
+      </c>
+      <c r="M16" s="20">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="20">
         <v>46</v>
       </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="25"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="80"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="25"/>
-    </row>
-    <row r="8" spans="1:26" ht="16.149999999999999" thickBot="1">
-      <c r="A8" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="41">
-        <v>1</v>
-      </c>
-      <c r="G10" s="42">
-        <v>2</v>
-      </c>
-      <c r="H10" s="42">
-        <v>3</v>
-      </c>
-      <c r="I10" s="43">
-        <v>4</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="77"/>
-      <c r="S10" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="V10" s="77"/>
-      <c r="W10" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z10" s="77"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="44">
-        <v>5</v>
-      </c>
-      <c r="G11" s="45">
-        <v>6</v>
-      </c>
-      <c r="H11" s="45">
-        <v>7</v>
-      </c>
-      <c r="I11" s="46">
-        <v>8</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="22">
-        <v>1</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="22">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>41</v>
-      </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="22">
-        <v>81</v>
-      </c>
-      <c r="U11" s="22">
-        <v>81</v>
-      </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="22">
-        <v>121</v>
-      </c>
-      <c r="Y11" s="22">
-        <v>121</v>
-      </c>
-      <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="47">
-        <v>1</v>
-      </c>
-      <c r="G12" s="48">
-        <v>2</v>
-      </c>
-      <c r="H12" s="48">
-        <v>3</v>
-      </c>
-      <c r="I12" s="49">
-        <v>4</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="22">
-        <v>2</v>
-      </c>
-      <c r="M12" s="22">
-        <v>2</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="22">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>42</v>
-      </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="22">
-        <v>82</v>
-      </c>
-      <c r="U12" s="22">
-        <v>82</v>
-      </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="22">
-        <v>122</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>122</v>
-      </c>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="41">
-        <v>5</v>
-      </c>
-      <c r="G13" s="42">
-        <v>6</v>
-      </c>
-      <c r="H13" s="42">
-        <v>7</v>
-      </c>
-      <c r="I13" s="43">
-        <v>8</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="22">
-        <v>3</v>
-      </c>
-      <c r="M13" s="22">
-        <v>3</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>43</v>
-      </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="22">
-        <v>83</v>
-      </c>
-      <c r="U13" s="22">
-        <v>83</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="22">
-        <v>123</v>
-      </c>
-      <c r="Y13" s="22">
-        <v>123</v>
-      </c>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="22">
-        <v>4</v>
-      </c>
-      <c r="M14" s="22">
-        <v>4</v>
-      </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="22">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>44</v>
-      </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="22">
-        <v>84</v>
-      </c>
-      <c r="U14" s="22">
-        <v>84</v>
-      </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="22">
-        <v>124</v>
-      </c>
-      <c r="Y14" s="22">
-        <v>124</v>
-      </c>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="22">
-        <v>5</v>
-      </c>
-      <c r="M15" s="22">
-        <v>5</v>
-      </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>45</v>
-      </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="22">
-        <v>85</v>
-      </c>
-      <c r="U15" s="22">
-        <v>85</v>
-      </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="22">
-        <v>125</v>
-      </c>
-      <c r="Y15" s="22">
-        <v>125</v>
-      </c>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="50">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51">
-        <v>2</v>
-      </c>
-      <c r="H16" s="51">
-        <v>3</v>
-      </c>
-      <c r="I16" s="51">
-        <v>4</v>
-      </c>
-      <c r="J16" s="52">
-        <v>5</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="22">
-        <v>6</v>
-      </c>
-      <c r="M16" s="22">
-        <v>6</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22">
+      <c r="Q16" s="20">
         <v>46</v>
       </c>
-      <c r="Q16" s="22">
-        <v>46</v>
-      </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="22">
+      <c r="R16" s="22"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="20">
         <v>86</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="20">
         <v>86</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="22">
+      <c r="V16" s="22"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="20">
         <v>126</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Y16" s="20">
         <v>126</v>
       </c>
-      <c r="Z16" s="15"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="18" t="s">
-        <v>66</v>
+      <c r="A17" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="22">
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="20">
         <v>7</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="20">
         <v>7</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22">
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="20">
         <v>47</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="20">
         <v>47</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22">
+      <c r="R17" s="22"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20">
         <v>87</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="20">
         <v>87</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="22">
+      <c r="V17" s="22"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="20">
         <v>127</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="Y17" s="20">
         <v>127</v>
       </c>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="22">
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="20">
         <v>8</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <v>8</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="22">
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="20">
         <v>48</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <v>48</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="22">
+      <c r="R18" s="22"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20">
         <v>88</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="20">
         <v>88</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="22">
+      <c r="V18" s="22"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="20">
         <v>128</v>
       </c>
-      <c r="Y18" s="22">
+      <c r="Y18" s="20">
         <v>128</v>
       </c>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="22">
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="20">
         <v>9</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <v>9</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="22">
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="20">
         <v>49</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <v>49</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="22">
+      <c r="R19" s="22"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="20">
         <v>89</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="20">
         <v>89</v>
       </c>
-      <c r="V19" s="24"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="22">
+      <c r="V19" s="22"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20">
         <v>129</v>
       </c>
-      <c r="Y19" s="22">
+      <c r="Y19" s="20">
         <v>129</v>
       </c>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="83"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="22">
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="20">
         <v>10</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="20">
         <v>10</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="22">
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="20">
         <v>50</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="20">
         <v>50</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="22">
+      <c r="R20" s="22"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="20">
         <v>90</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="20">
         <v>90</v>
       </c>
-      <c r="V20" s="24"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="22">
+      <c r="V20" s="22"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="20">
         <v>130</v>
       </c>
-      <c r="Y20" s="22">
+      <c r="Y20" s="20">
         <v>130</v>
       </c>
-      <c r="Z20" s="15"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="22">
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="20">
         <v>11</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="20">
         <v>11</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="22">
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="20">
         <v>51</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="20">
         <v>51</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="22">
+      <c r="R21" s="22"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="20">
         <v>91</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="20">
         <v>91</v>
       </c>
-      <c r="V21" s="24"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="22">
+      <c r="V21" s="22"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="20">
         <v>131</v>
       </c>
-      <c r="Y21" s="22">
+      <c r="Y21" s="20">
         <v>131</v>
       </c>
-      <c r="Z21" s="15"/>
+      <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="83"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="22">
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="20">
         <v>12</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="20">
         <v>12</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="22">
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="20">
         <v>52</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>52</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="22">
+      <c r="R22" s="22"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="20">
         <v>92</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="20">
         <v>92</v>
       </c>
-      <c r="V22" s="24"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="22">
+      <c r="V22" s="22"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="20">
         <v>132</v>
       </c>
-      <c r="Y22" s="22">
+      <c r="Y22" s="20">
         <v>132</v>
       </c>
-      <c r="Z22" s="15"/>
+      <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="83"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="22">
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="20">
         <v>13</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <v>13</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="22">
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="20">
         <v>53</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <v>53</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="22">
+      <c r="R23" s="22"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="20">
         <v>93</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="20">
         <v>93</v>
       </c>
-      <c r="V23" s="24"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="22">
+      <c r="V23" s="22"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="20">
         <v>133</v>
       </c>
-      <c r="Y23" s="22">
+      <c r="Y23" s="20">
         <v>133</v>
       </c>
-      <c r="Z23" s="15"/>
+      <c r="Z23" s="13"/>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="83"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+    <row r="24" spans="1:26" ht="12.75">
+      <c r="A24" s="56"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="22">
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="20">
         <v>14</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <v>14</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="22">
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="20">
         <v>54</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="20">
         <v>54</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="22">
+      <c r="R24" s="22"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="20">
         <v>94</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="20">
         <v>94</v>
       </c>
-      <c r="V24" s="24"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="22">
+      <c r="V24" s="22"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="20">
         <v>134</v>
       </c>
-      <c r="Y24" s="22">
+      <c r="Y24" s="20">
         <v>134</v>
       </c>
-      <c r="Z24" s="15"/>
+      <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+    <row r="25" spans="1:26" ht="12.75">
+      <c r="A25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="22">
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="20">
         <v>15</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <v>15</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="22">
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="20">
         <v>55</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="20">
         <v>55</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="22">
+      <c r="R25" s="22"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="20">
         <v>95</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="20">
         <v>95</v>
       </c>
-      <c r="V25" s="24"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="22">
+      <c r="V25" s="22"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="20">
         <v>135</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25" s="20">
         <v>135</v>
       </c>
-      <c r="Z25" s="15"/>
+      <c r="Z25" s="13"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="83"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+    <row r="26" spans="1:26" ht="12.75">
+      <c r="A26" s="56"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="22">
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="20">
         <v>16</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="20">
         <v>16</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="22">
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="20">
         <v>56</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="20">
         <v>56</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="22">
+      <c r="R26" s="22"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20">
         <v>96</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="20">
         <v>96</v>
       </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="22">
+      <c r="V26" s="22"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="20">
         <v>136</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="20">
         <v>136</v>
       </c>
-      <c r="Z26" s="15"/>
+      <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+    <row r="27" spans="1:26" ht="12.75">
+      <c r="A27" s="56"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="22">
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="20">
         <v>17</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="20">
         <v>17</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="22">
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="20">
         <v>57</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="20">
         <v>57</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="22">
+      <c r="R27" s="22"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="20">
         <v>97</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="20">
         <v>97</v>
       </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="22">
+      <c r="V27" s="22"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="20">
         <v>137</v>
       </c>
-      <c r="Y27" s="22">
+      <c r="Y27" s="20">
         <v>137</v>
       </c>
-      <c r="Z27" s="15"/>
+      <c r="Z27" s="13"/>
     </row>
-    <row r="28" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="22">
+    <row r="28" spans="1:26" ht="12.75">
+      <c r="A28" s="56"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="20">
         <v>18</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="20">
         <v>18</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="22">
+      <c r="N28" s="22"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="20">
         <v>58</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="20">
         <v>58</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="22">
+      <c r="R28" s="22"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="20">
         <v>98</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="20">
         <v>98</v>
       </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="22">
+      <c r="V28" s="22"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="20">
         <v>138</v>
       </c>
-      <c r="Y28" s="22">
+      <c r="Y28" s="20">
         <v>138</v>
       </c>
-      <c r="Z28" s="15"/>
+      <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="16.149999999999999" thickBot="1">
-      <c r="A29" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="22">
+    <row r="29" spans="1:26" ht="15.75">
+      <c r="A29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="20">
         <v>19</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="20">
         <v>19</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="22">
+      <c r="N29" s="22"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="20">
         <v>59</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="20">
         <v>59</v>
       </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="22">
+      <c r="R29" s="22"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20">
         <v>99</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="20">
         <v>99</v>
       </c>
-      <c r="V29" s="24"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="22">
+      <c r="V29" s="22"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="20">
         <v>139</v>
       </c>
-      <c r="Y29" s="22">
+      <c r="Y29" s="20">
         <v>139</v>
       </c>
-      <c r="Z29" s="15"/>
+      <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A30" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="22">
+    <row r="30" spans="1:26" ht="12.75">
+      <c r="A30" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="20">
         <v>20</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="20">
         <v>20</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="22">
+      <c r="N30" s="22"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="20">
         <v>60</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="20">
         <v>60</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="22">
+      <c r="R30" s="22"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="20">
         <v>100</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="20">
         <v>100</v>
       </c>
-      <c r="V30" s="24"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="22">
+      <c r="V30" s="22"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="20">
         <v>140</v>
       </c>
-      <c r="Y30" s="22">
+      <c r="Y30" s="20">
         <v>140</v>
       </c>
-      <c r="Z30" s="15"/>
+      <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="41">
+      <c r="A31" s="19"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="36">
         <v>1</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="37">
         <v>2</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="37">
         <v>3</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="38">
         <v>4</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="22">
+      <c r="J31" s="17"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="20">
         <v>21</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="20">
         <v>21</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="22">
+      <c r="N31" s="22"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="20">
         <v>61</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="20">
         <v>61</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="22">
+      <c r="R31" s="22"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="20">
         <v>101</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="20">
         <v>101</v>
       </c>
-      <c r="V31" s="24"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="22">
+      <c r="V31" s="22"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="20">
         <v>141</v>
       </c>
-      <c r="Y31" s="22">
+      <c r="Y31" s="20">
         <v>141</v>
       </c>
-      <c r="Z31" s="15"/>
+      <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="44">
+      <c r="A32" s="19"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="39">
         <v>5</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="40">
         <v>6</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="40">
         <v>7</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="41">
         <v>8</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="22">
+      <c r="J32" s="17"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="20">
         <v>22</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="20">
         <v>22</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="22">
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20">
         <v>62</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>62</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="22">
+      <c r="R32" s="22"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="20">
         <v>102</v>
       </c>
-      <c r="U32" s="22">
+      <c r="U32" s="20">
         <v>102</v>
       </c>
-      <c r="V32" s="24"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="22">
+      <c r="V32" s="22"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="20">
         <v>142</v>
       </c>
-      <c r="Y32" s="22">
+      <c r="Y32" s="20">
         <v>142</v>
       </c>
-      <c r="Z32" s="15"/>
+      <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="47">
+      <c r="A33" s="19"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="42">
         <v>1</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="43">
         <v>2</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="43">
         <v>3</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="44">
         <v>4</v>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="22">
+      <c r="J33" s="17"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="20">
         <v>23</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="20">
         <v>23</v>
       </c>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="22">
+      <c r="N33" s="22"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="20">
         <v>63</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="20">
         <v>63</v>
       </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="22">
+      <c r="R33" s="22"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="20">
         <v>103</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="20">
         <v>103</v>
       </c>
-      <c r="V33" s="24"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="22">
+      <c r="V33" s="22"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="20">
         <v>143</v>
       </c>
-      <c r="Y33" s="22">
+      <c r="Y33" s="20">
         <v>143</v>
       </c>
-      <c r="Z33" s="15"/>
+      <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" ht="13.9" thickBot="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="41">
+      <c r="A34" s="19"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="36">
         <v>5</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="37">
         <v>6</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="37">
         <v>7</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="38">
         <v>8</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="22">
+      <c r="J34" s="17"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="20">
         <v>24</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="20">
         <v>24</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="22">
+      <c r="N34" s="22"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="20">
         <v>64</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="20">
         <v>64</v>
       </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="22">
+      <c r="R34" s="22"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="20">
         <v>104</v>
       </c>
-      <c r="U34" s="22">
+      <c r="U34" s="20">
         <v>104</v>
       </c>
-      <c r="V34" s="24"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="22">
+      <c r="V34" s="22"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="20">
         <v>144</v>
       </c>
-      <c r="Y34" s="22">
+      <c r="Y34" s="20">
         <v>144</v>
       </c>
-      <c r="Z34" s="15"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="21"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="22">
+      <c r="E35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="20">
         <v>25</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="20">
         <v>25</v>
       </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="22">
+      <c r="N35" s="22"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="20">
         <v>65</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="20">
         <v>65</v>
       </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="22">
+      <c r="R35" s="22"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="20">
         <v>105</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="20">
         <v>105</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="22">
+      <c r="V35" s="22"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="20">
         <v>145</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="20">
         <v>145</v>
       </c>
-      <c r="Z35" s="15"/>
+      <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="22">
+      <c r="A36" s="53"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="20">
         <v>26</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="20">
         <v>26</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="22">
+      <c r="N36" s="22"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="20">
         <v>66</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q36" s="20">
         <v>66</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="22">
+      <c r="R36" s="22"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="20">
         <v>106</v>
       </c>
-      <c r="U36" s="22">
+      <c r="U36" s="20">
         <v>106</v>
       </c>
-      <c r="V36" s="24"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="22">
+      <c r="V36" s="22"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="20">
         <v>146</v>
       </c>
-      <c r="Y36" s="22">
+      <c r="Y36" s="20">
         <v>146</v>
       </c>
-      <c r="Z36" s="15"/>
+      <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="50">
+      <c r="A37" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="45">
         <v>1</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="46">
         <v>2</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="46">
         <v>3</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="46">
         <v>4</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="47">
         <v>5</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="22">
+      <c r="K37" s="14"/>
+      <c r="L37" s="20">
         <v>27</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="20">
         <v>27</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="22">
+      <c r="N37" s="22"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="20">
         <v>67</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q37" s="20">
         <v>67</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="22">
+      <c r="R37" s="22"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="20">
         <v>107</v>
       </c>
-      <c r="U37" s="22">
+      <c r="U37" s="20">
         <v>107</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="22">
+      <c r="V37" s="22"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="20">
         <v>147</v>
       </c>
-      <c r="Y37" s="22">
+      <c r="Y37" s="20">
         <v>147</v>
       </c>
-      <c r="Z37" s="15"/>
+      <c r="Z37" s="13"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="18"/>
+      <c r="A38" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="22">
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="20">
         <v>28</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="20">
         <v>28</v>
       </c>
-      <c r="N38" s="24"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="22">
+      <c r="N38" s="22"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="20">
         <v>68</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q38" s="20">
         <v>68</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="22">
+      <c r="R38" s="22"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="20">
         <v>108</v>
       </c>
-      <c r="U38" s="22">
+      <c r="U38" s="20">
         <v>108</v>
       </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="22">
+      <c r="V38" s="22"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="20">
         <v>148</v>
       </c>
-      <c r="Y38" s="22">
+      <c r="Y38" s="20">
         <v>148</v>
       </c>
-      <c r="Z38" s="15"/>
+      <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="83"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="22">
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="20">
         <v>29</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="20">
         <v>29</v>
       </c>
-      <c r="N39" s="24"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="22">
+      <c r="N39" s="22"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="20">
         <v>69</v>
       </c>
-      <c r="Q39" s="22">
+      <c r="Q39" s="20">
         <v>69</v>
       </c>
-      <c r="R39" s="24"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="22">
+      <c r="R39" s="22"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="20">
         <v>109</v>
       </c>
-      <c r="U39" s="22">
+      <c r="U39" s="20">
         <v>109</v>
       </c>
-      <c r="V39" s="24"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="22">
+      <c r="V39" s="22"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="20">
         <v>149</v>
       </c>
-      <c r="Y39" s="22">
+      <c r="Y39" s="20">
         <v>149</v>
       </c>
-      <c r="Z39" s="15"/>
+      <c r="Z39" s="13"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="83"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="22">
+      <c r="J40" s="15"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="20">
         <v>30</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="20">
         <v>30</v>
       </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="22">
+      <c r="N40" s="22"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="20">
         <v>70</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40" s="20">
         <v>70</v>
       </c>
-      <c r="R40" s="24"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="22">
+      <c r="R40" s="22"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="20">
         <v>110</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="20">
         <v>110</v>
       </c>
-      <c r="V40" s="24"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="22">
+      <c r="V40" s="22"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="20">
         <v>150</v>
       </c>
-      <c r="Y40" s="22">
+      <c r="Y40" s="20">
         <v>150</v>
       </c>
-      <c r="Z40" s="15"/>
+      <c r="Z40" s="13"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="83"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="22">
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="20">
         <v>31</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="20">
         <v>31</v>
       </c>
-      <c r="N41" s="24"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="22">
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="20">
         <v>71</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="20">
         <v>71</v>
       </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="22">
+      <c r="R41" s="22"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="20">
         <v>111</v>
       </c>
-      <c r="U41" s="22">
+      <c r="U41" s="20">
         <v>111</v>
       </c>
-      <c r="V41" s="24"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="22">
+      <c r="V41" s="22"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="20">
         <v>151</v>
       </c>
-      <c r="Y41" s="22">
+      <c r="Y41" s="20">
         <v>151</v>
       </c>
-      <c r="Z41" s="15"/>
+      <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="83"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="22">
+      <c r="J42" s="15"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="20">
         <v>32</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="20">
         <v>32</v>
       </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="22">
+      <c r="N42" s="22"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="20">
         <v>72</v>
       </c>
-      <c r="Q42" s="22">
+      <c r="Q42" s="20">
         <v>72</v>
       </c>
-      <c r="R42" s="24"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="22">
+      <c r="R42" s="22"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="20">
         <v>112</v>
       </c>
-      <c r="U42" s="22">
+      <c r="U42" s="20">
         <v>112</v>
       </c>
-      <c r="V42" s="24"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="22">
+      <c r="V42" s="22"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="20">
         <v>152</v>
       </c>
-      <c r="Y42" s="22">
+      <c r="Y42" s="20">
         <v>152</v>
       </c>
-      <c r="Z42" s="15"/>
+      <c r="Z42" s="13"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="83"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="22">
+      <c r="J43" s="15"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="20">
         <v>33</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="20">
         <v>33</v>
       </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="22">
+      <c r="N43" s="22"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="20">
         <v>73</v>
       </c>
-      <c r="Q43" s="22">
+      <c r="Q43" s="20">
         <v>73</v>
       </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="22">
+      <c r="R43" s="22"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="20">
         <v>113</v>
       </c>
-      <c r="U43" s="22">
+      <c r="U43" s="20">
         <v>113</v>
       </c>
-      <c r="V43" s="24"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="22">
+      <c r="V43" s="22"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="20">
         <v>153</v>
       </c>
-      <c r="Y43" s="22">
+      <c r="Y43" s="20">
         <v>153</v>
       </c>
-      <c r="Z43" s="15"/>
+      <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="83"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="22">
+      <c r="J44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="20">
         <v>34</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="20">
         <v>34</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="22">
+      <c r="N44" s="22"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="20">
         <v>74</v>
       </c>
-      <c r="Q44" s="22">
+      <c r="Q44" s="20">
         <v>74</v>
       </c>
-      <c r="R44" s="24"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="22">
+      <c r="R44" s="22"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="20">
         <v>114</v>
       </c>
-      <c r="U44" s="22">
+      <c r="U44" s="20">
         <v>114</v>
       </c>
-      <c r="V44" s="24"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="22">
+      <c r="V44" s="22"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="20">
         <v>154</v>
       </c>
-      <c r="Y44" s="22">
+      <c r="Y44" s="20">
         <v>154</v>
       </c>
-      <c r="Z44" s="15"/>
+      <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="83"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="22">
+      <c r="J45" s="15"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="20">
         <v>35</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="20">
         <v>35</v>
       </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="22">
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="20">
         <v>75</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="20">
         <v>75</v>
       </c>
-      <c r="R45" s="24"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="22">
+      <c r="R45" s="22"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="20">
         <v>115</v>
       </c>
-      <c r="U45" s="22">
+      <c r="U45" s="20">
         <v>115</v>
       </c>
-      <c r="V45" s="24"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="22">
+      <c r="V45" s="22"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="20">
         <v>155</v>
       </c>
-      <c r="Y45" s="22">
+      <c r="Y45" s="20">
         <v>155</v>
       </c>
-      <c r="Z45" s="15"/>
+      <c r="Z45" s="13"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="83"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="22">
+      <c r="J46" s="15"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="20">
         <v>36</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="20">
         <v>36</v>
       </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="22">
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="20">
         <v>76</v>
       </c>
-      <c r="Q46" s="22">
+      <c r="Q46" s="20">
         <v>76</v>
       </c>
-      <c r="R46" s="24"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="22">
+      <c r="R46" s="22"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="20">
         <v>116</v>
       </c>
-      <c r="U46" s="22">
+      <c r="U46" s="20">
         <v>116</v>
       </c>
-      <c r="V46" s="24"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="22">
+      <c r="V46" s="22"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="20">
         <v>156</v>
       </c>
-      <c r="Y46" s="22">
+      <c r="Y46" s="20">
         <v>156</v>
       </c>
-      <c r="Z46" s="15"/>
+      <c r="Z46" s="13"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="83"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="22">
+      <c r="J47" s="15"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="20">
         <v>37</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="20">
         <v>37</v>
       </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="22">
+      <c r="N47" s="22"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="20">
         <v>77</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="Q47" s="20">
         <v>77</v>
       </c>
-      <c r="R47" s="24"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="22">
+      <c r="R47" s="22"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="20">
         <v>117</v>
       </c>
-      <c r="U47" s="22">
+      <c r="U47" s="20">
         <v>117</v>
       </c>
-      <c r="V47" s="24"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="22">
+      <c r="V47" s="22"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="20">
         <v>157</v>
       </c>
-      <c r="Y47" s="22">
+      <c r="Y47" s="20">
         <v>157</v>
       </c>
-      <c r="Z47" s="15"/>
+      <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="83"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="22">
+      <c r="J48" s="15"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="20">
         <v>38</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="20">
         <v>38</v>
       </c>
-      <c r="N48" s="24"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="22">
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="20">
         <v>78</v>
       </c>
-      <c r="Q48" s="22">
+      <c r="Q48" s="20">
         <v>78</v>
       </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="22">
+      <c r="R48" s="22"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="20">
         <v>118</v>
       </c>
-      <c r="U48" s="22">
+      <c r="U48" s="20">
         <v>118</v>
       </c>
-      <c r="V48" s="24"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="22">
+      <c r="V48" s="22"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="20">
         <v>158</v>
       </c>
-      <c r="Y48" s="22">
+      <c r="Y48" s="20">
         <v>158</v>
       </c>
-      <c r="Z48" s="15"/>
+      <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="83"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+    <row r="49" spans="1:26" ht="12.75">
+      <c r="A49" s="56"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="22">
+      <c r="J49" s="15"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="20">
         <v>39</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="20">
         <v>39</v>
       </c>
-      <c r="N49" s="24"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="22">
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="20">
         <v>79</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="Q49" s="20">
         <v>79</v>
       </c>
-      <c r="R49" s="24"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="22">
+      <c r="R49" s="22"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="20">
         <v>119</v>
       </c>
-      <c r="U49" s="22">
+      <c r="U49" s="20">
         <v>119</v>
       </c>
-      <c r="V49" s="24"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="22">
+      <c r="V49" s="22"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="20">
         <v>159</v>
       </c>
-      <c r="Y49" s="22">
+      <c r="Y49" s="20">
         <v>159</v>
       </c>
-      <c r="Z49" s="15"/>
+      <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="53">
+      <c r="A50" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="79">
         <v>40</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="79">
         <v>40</v>
       </c>
-      <c r="N50" s="54"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="53">
+      <c r="N50" s="77"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="79">
         <v>80</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q50" s="79">
         <v>80</v>
       </c>
-      <c r="R50" s="54"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="53">
+      <c r="R50" s="77"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="79">
         <v>120</v>
       </c>
-      <c r="U50" s="53">
+      <c r="U50" s="79">
         <v>120</v>
       </c>
-      <c r="V50" s="54"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="53">
+      <c r="V50" s="77"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="79">
         <v>160</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y50" s="79">
         <v>160</v>
       </c>
-      <c r="Z50" s="12"/>
+      <c r="Z50" s="81"/>
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1">
-      <c r="A51" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="56" t="s">
+      <c r="A51" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1">
-      <c r="A53" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
+      <c r="A53" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26">
@@ -8821,6 +8992,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -8845,95 +9105,6 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baske\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\NSBL\runsheet-script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB580C4-60E6-48D0-9495-D5FF164767BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9761D373-70F3-435F-B9DC-AE37586AB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="53925" yWindow="0" windowWidth="22875" windowHeight="21000" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +378,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1009,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,84 +1146,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1235,12 +1171,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1251,10 +1181,78 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,7 +1267,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,14 +1276,40 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1409,8 +1432,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3208390"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="3227440"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1648,8 +1671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3370315"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="3388174"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1836,8 +1859,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3532240"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="3548909"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2024,8 +2047,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3694165"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="3709643"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2212,8 +2235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="3856090"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="3870378"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2400,8 +2423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4018015"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4031112"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2588,8 +2611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4179940"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4191846"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2776,8 +2799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4341865"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4352581"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2964,8 +2987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4503790"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4513315"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3152,8 +3175,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4665715"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4674049"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3340,8 +3363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4827640"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4834784"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3531,8 +3554,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="4989565"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="4995518"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3719,8 +3742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="6846940"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="6852893"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3907,8 +3930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="6685015"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="6692159"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4095,8 +4118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7008865"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7013628"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4283,8 +4306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7170790"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7174362"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4471,8 +4494,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7332715"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7335096"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4659,8 +4682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7494640"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7495831"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4847,8 +4870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7656565"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7656565"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5035,8 +5058,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7818490"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7817299"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5223,8 +5246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="7980415"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="7978034"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5411,8 +5434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8142340"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="8138768"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5599,8 +5622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8304265"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="8299503"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5787,8 +5810,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300803" y="8466190"/>
-          <a:ext cx="407658" cy="108000"/>
+          <a:off x="298422" y="8460237"/>
+          <a:ext cx="408848" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -6251,19 +6274,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6284,7 +6309,7 @@
       </c>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6297,15 +6322,15 @@
       <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25">
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6318,15 +6343,15 @@
       <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="50" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -6339,11 +6364,11 @@
       <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25">
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -6364,7 +6389,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -6377,15 +6402,15 @@
       <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="50" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25">
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -6398,15 +6423,15 @@
       <c r="D7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="50" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -6419,9 +6444,9 @@
       <c r="D8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="107"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25">
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -6434,9 +6459,9 @@
       <c r="D9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25">
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -6449,9 +6474,9 @@
       <c r="D10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25">
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -6464,49 +6489,49 @@
       <c r="D11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="65"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25">
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="65"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25">
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="65"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25">
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="65"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25">
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25">
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="65"/>
     </row>
-    <row r="17" spans="4:5" ht="23.25">
+    <row r="17" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="65"/>
     </row>
-    <row r="18" spans="4:5" ht="23.25">
+    <row r="18" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="65"/>
     </row>
-    <row r="19" spans="4:5" ht="23.25">
+    <row r="19" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="65"/>
     </row>
-    <row r="20" spans="4:5" ht="23.25">
+    <row r="20" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="65"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6522,11 +6547,11 @@
   </sheetPr>
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" style="7" customWidth="1"/>
@@ -6542,89 +6567,89 @@
     <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33" customHeight="1">
+    <row r="1" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="87"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="59"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="90"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75">
+    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="91" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="91" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="90"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:28" ht="13.9">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -6635,28 +6660,28 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
       <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75">
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -6667,28 +6692,28 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="92" t="s">
+      <c r="K5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="92" t="s">
+      <c r="S5" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
       <c r="Z5" s="23"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -6699,28 +6724,28 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="74" t="s">
+      <c r="S6" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75">
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -6732,18 +6757,18 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="95"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="96" t="s">
+      <c r="Q7" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="91"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
@@ -6751,36 +6776,36 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="23"/>
-      <c r="AB7" s="97"/>
+      <c r="AB7" s="63"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="98" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
       <c r="T8" s="18"/>
       <c r="U8" s="24"/>
       <c r="V8" s="18"/>
@@ -6789,44 +6814,44 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="23"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="61" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="99"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="17"/>
       <c r="E10" s="34" t="s">
         <v>59</v>
@@ -6844,43 +6869,43 @@
         <v>4</v>
       </c>
       <c r="J10" s="17"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66" t="s">
+      <c r="L10" s="86"/>
+      <c r="M10" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68" t="s">
+      <c r="N10" s="87"/>
+      <c r="O10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66" t="s">
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="67"/>
-      <c r="S10" s="68" t="s">
+      <c r="R10" s="87"/>
+      <c r="S10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66" t="s">
+      <c r="T10" s="86"/>
+      <c r="U10" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68" t="s">
+      <c r="V10" s="87"/>
+      <c r="W10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66" t="s">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z10" s="67"/>
+      <c r="Z10" s="87"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9" thickBot="1">
+    <row r="11" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="39">
@@ -6929,10 +6954,10 @@
       </c>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="17"/>
       <c r="E12" s="34" t="s">
         <v>62</v>
@@ -6983,10 +7008,10 @@
       </c>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9" thickBot="1">
+    <row r="13" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="36">
@@ -7035,10 +7060,10 @@
       </c>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="11"/>
       <c r="E14" s="17" t="s">
         <v>63</v>
@@ -7081,19 +7106,19 @@
       </c>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="54"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="14"/>
       <c r="L15" s="20">
         <v>5</v>
@@ -7127,16 +7152,16 @@
       </c>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="45">
         <v>1</v>
       </c>
@@ -7185,13 +7210,13 @@
       </c>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="16" t="s">
         <v>68</v>
       </c>
@@ -7233,11 +7258,11 @@
       </c>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="11"/>
@@ -7277,11 +7302,11 @@
       </c>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="11"/>
@@ -7321,11 +7346,11 @@
       </c>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="56"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="73"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="11"/>
@@ -7365,11 +7390,11 @@
       </c>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="56"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="11"/>
@@ -7409,11 +7434,11 @@
       </c>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="56"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="11"/>
@@ -7453,11 +7478,11 @@
       </c>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="56"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="73"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="11"/>
@@ -7497,11 +7522,11 @@
       </c>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75">
-      <c r="A24" s="56"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="11"/>
@@ -7541,11 +7566,11 @@
       </c>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75">
-      <c r="A25" s="56"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="11"/>
@@ -7585,11 +7610,11 @@
       </c>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="11"/>
@@ -7629,11 +7654,11 @@
       </c>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="12.75">
-      <c r="A27" s="56"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="73"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="11"/>
@@ -7673,17 +7698,17 @@
       </c>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28" spans="1:26" ht="12.75">
-      <c r="A28" s="56"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="82"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="14"/>
       <c r="L28" s="20">
         <v>18</v>
@@ -7717,21 +7742,21 @@
       </c>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="101" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="104"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
       <c r="K29" s="14"/>
       <c r="L29" s="20">
         <v>19</v>
@@ -7765,20 +7790,20 @@
       </c>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="12.75">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="61" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
       <c r="J30" s="35"/>
       <c r="K30" s="14"/>
       <c r="L30" s="20">
@@ -7813,10 +7838,10 @@
       </c>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="13.9" thickBot="1">
+    <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="17"/>
       <c r="E31" s="34" t="s">
         <v>59</v>
@@ -7867,10 +7892,10 @@
       </c>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32" spans="1:26" ht="13.9" thickBot="1">
+    <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="39">
@@ -7919,10 +7944,10 @@
       </c>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="1:26" ht="13.9" thickBot="1">
+    <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="17"/>
       <c r="E33" s="34" t="s">
         <v>62</v>
@@ -7973,10 +7998,10 @@
       </c>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" spans="1:26" ht="13.9" thickBot="1">
+    <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="36">
@@ -8025,10 +8050,10 @@
       </c>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="11"/>
       <c r="E35" s="17" t="s">
         <v>63</v>
@@ -8071,19 +8096,19 @@
       </c>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="54"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
       <c r="K36" s="14"/>
       <c r="L36" s="20">
         <v>26</v>
@@ -8117,16 +8142,16 @@
       </c>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="53" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="62" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="63"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="45">
         <v>1</v>
       </c>
@@ -8175,13 +8200,13 @@
       </c>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="56" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="16" t="s">
         <v>71</v>
       </c>
@@ -8223,11 +8248,11 @@
       </c>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="56"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="73"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="11"/>
@@ -8267,11 +8292,11 @@
       </c>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="56"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="73"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="11"/>
@@ -8311,11 +8336,11 @@
       </c>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="56"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="73"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="11"/>
@@ -8355,11 +8380,11 @@
       </c>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="56"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="54"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="73"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="11"/>
@@ -8399,11 +8424,11 @@
       </c>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="56"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="73"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="11"/>
@@ -8443,11 +8468,11 @@
       </c>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="56"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="73"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="11"/>
@@ -8487,11 +8512,11 @@
       </c>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="56"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="73"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="11"/>
@@ -8531,11 +8556,11 @@
       </c>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="56"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="73"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="11"/>
@@ -8575,11 +8600,11 @@
       </c>
       <c r="Z46" s="13"/>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="56"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="73"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="11"/>
@@ -8619,11 +8644,11 @@
       </c>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="56"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="73"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="11"/>
@@ -8663,11 +8688,11 @@
       </c>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26" ht="12.75">
-      <c r="A49" s="56"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="73"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="11"/>
@@ -8707,163 +8732,163 @@
       </c>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="50" t="s">
+    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="79">
+      <c r="J50" s="56"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="53">
         <v>40</v>
       </c>
-      <c r="M50" s="79">
+      <c r="M50" s="53">
         <v>40</v>
       </c>
-      <c r="N50" s="77"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="79">
+      <c r="N50" s="51"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="53">
         <v>80</v>
       </c>
-      <c r="Q50" s="79">
+      <c r="Q50" s="53">
         <v>80</v>
       </c>
-      <c r="R50" s="77"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="79">
+      <c r="R50" s="51"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="53">
         <v>120</v>
       </c>
-      <c r="U50" s="79">
+      <c r="U50" s="53">
         <v>120</v>
       </c>
-      <c r="V50" s="77"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="79">
+      <c r="V50" s="51"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="53">
         <v>160</v>
       </c>
-      <c r="Y50" s="79">
+      <c r="Y50" s="53">
         <v>160</v>
       </c>
-      <c r="Z50" s="81"/>
+      <c r="Z50" s="55"/>
     </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
       <c r="H51" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
     </row>
-    <row r="52" spans="1:26" ht="15" customHeight="1">
-      <c r="A52" s="53" t="s">
+    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="54"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="71"/>
       <c r="E52" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="50" t="s">
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="57" t="s">
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57" t="s">
+      <c r="Q52" s="75"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="75"/>
+      <c r="U52" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
+      <c r="V52" s="75"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="75"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="58" t="s">
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="75"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -8882,7 +8907,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -8900,7 +8925,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -8918,7 +8943,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -8936,7 +8961,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -8954,7 +8979,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -8972,7 +8997,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\NSBL\runsheet-script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9761D373-70F3-435F-B9DC-AE37586AB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E7C7F-C646-40C1-9635-A0BA16B144BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53925" yWindow="0" windowWidth="22875" windowHeight="21000" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="53925" yWindow="0" windowWidth="22875" windowHeight="21000" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -437,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -982,12 +982,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -997,10 +1049,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1010,10 +1062,129 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1023,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,9 +1219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,10 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,15 +1242,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1152,9 +1307,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,10 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,7 +1337,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,118 +1421,111 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,15 +1551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>50131</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40606</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>183482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1373,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1695450" cy="1409700"/>
+          <a:off x="50131" y="50132"/>
+          <a:ext cx="1694949" cy="1456824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,13 +1627,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1432,8 +1648,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="3227440"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="3249059"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1650,13 +1866,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1671,8 +1887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="3388174"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="3409480"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1838,13 +2054,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1859,8 +2075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="3548909"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="3569901"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2026,13 +2242,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2047,8 +2263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="3709643"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="3730323"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2214,13 +2430,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2235,8 +2451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="3870378"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="3890744"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2402,13 +2618,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2423,8 +2639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="4031112"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="4051165"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2590,13 +2806,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2611,8 +2827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="4191846"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="4211586"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2778,13 +2994,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2799,8 +3015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="4352581"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="4372007"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2965,769 +3181,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="152" name="Group 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955BDEA9-275E-4645-B30B-6491DB29694B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="4513315"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="Oval 152">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B863EC0D-4760-AB5B-FF98-E811B2080359}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="Oval 153">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E568E66-BC8E-7511-4620-55FCA5F5AD61}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="155" name="Oval 154">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEED032C-A532-7BEB-9E76-E91520DAD384}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="156" name="Group 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377A0052-A078-4C16-B0C8-1591CA414A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="4674049"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="Oval 156">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC45C2B-38F6-3477-CE86-2F6DC2895B46}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="158" name="Oval 157">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F475D0B-4469-C063-7BD8-533061CBE8A3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="Oval 158">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF05315A-1AD2-D042-FE00-87AC2731BC9C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="160" name="Group 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5651E0-AD29-42E5-B927-4CE3EFA196A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="4834784"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="Oval 160">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1447EC80-C1B5-7FEA-D489-8E2BCB490E14}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="Oval 161">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579F321A-F03F-9352-4D8F-EB4B9D509540}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Oval 162">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAA61C0-D20F-926D-AAC4-10C6454A7A37}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="164" name="Group 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46678B6F-E93A-48E1-84E7-AE1C85EB225B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BC5651E0-AD29-42E5-B927-4CE3EFA196A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="4995518"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="165" name="Oval 164">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093216E3-5C31-AEC2-0A11-4FCD71668F82}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="Oval 165">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32C92EE-B2A0-503A-4219-CF018F70F989}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="167" name="Oval 166">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A965A8C-4024-8DAD-EA1E-5DC998AFEDCB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3742,8 +3203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="6852893"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="6888612"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3909,13 +3370,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3930,8 +3391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="6692159"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="6728191"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4097,13 +3558,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4118,8 +3579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7013628"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7049033"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4285,13 +3746,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4306,8 +3767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7174362"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7209454"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4473,13 +3934,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4494,8 +3955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7335096"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7369875"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4661,13 +4122,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4682,8 +4143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7495831"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7530296"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4849,13 +4310,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4870,8 +4331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7656565"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7690717"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5037,13 +4498,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>24578</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
+      <xdr:rowOff>30612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165536</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
+      <xdr:rowOff>138612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5058,8 +4519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="298422" y="7817299"/>
-          <a:ext cx="408848" cy="108000"/>
+          <a:off x="300302" y="7851138"/>
+          <a:ext cx="406655" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5172,758 +4633,6 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83907931-FA9C-F3C4-BC44-44DA08F34C70}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="200" name="Group 199">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A405C7-2B1B-44F7-87DB-BACBDB0F8C6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="7978034"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="Oval 200">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA22F6F-34DF-399B-29FB-A7712FD4A5DE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="Oval 201">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4001A5F1-C7C0-A30B-AE0B-9C481D628CDD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="Oval 202">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEBCCE7-A8A5-4322-AB80-D6911F90C491}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="204" name="Group 203">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D6A828-02B1-4CEF-978E-B95CF828A08E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="8138768"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="Oval 204">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0D695D-11A2-8090-01F5-A14F1E9A5250}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="Oval 205">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6C6BAC-AC38-15BE-BCB1-A4312CCB68A8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="Oval 206">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5EC392-4F48-0434-14E0-A0762BB985BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="208" name="Group 207">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC836EA-A746-4C1C-9FE5-46C2C0D00989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="8299503"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="Oval 208">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804482E5-85E4-C5A2-1844-E1D32569DEE6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="Oval 209">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFB3C58-7157-C8EE-98C8-4CDB5A4421A7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="Oval 210">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53B3A74-0612-8B7E-6E80-B9EC96A6768E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="645854" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24578</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>36565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165536</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>144565</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="212" name="Group 211">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1988641D-F184-4FB9-A858-5AE87F8B3051}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="298422" y="8460237"/>
-          <a:ext cx="408848" cy="108000"/>
-          <a:chOff x="408650" y="3345734"/>
-          <a:chExt cx="322695" cy="108000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="Oval 212">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B163F4-5CD6-E9B5-E6A8-4721750651D0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="408650" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="Oval 213">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA65F7F3-D99A-2E90-4A60-C102E5231D42}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="527252" y="3345734"/>
-            <a:ext cx="85491" cy="108000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-AU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="Oval 214">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FE6E19-A567-5CDB-2A61-94D7304C37D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6274,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -6284,7 +4993,7 @@
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="55" customWidth="1"/>
     <col min="6" max="6" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6307,78 +5016,78 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -6387,151 +5096,151 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="65"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="65"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D14" s="29"/>
-      <c r="E14" s="65"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D15" s="29"/>
-      <c r="E15" s="65"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D16" s="29"/>
-      <c r="E16" s="65"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D17" s="29"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D18" s="29"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D19" s="29"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D20" s="29"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="54"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6547,8 +5256,8 @@
   </sheetPr>
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AA4:AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6568,2325 +5277,2333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="100" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="59"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="50"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="62"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="102" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="102" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="62"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="51"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="103" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="103" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="104" t="s">
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="104" t="s">
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="23"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="105" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="105" t="s">
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="89" t="s">
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="20"/>
+    </row>
+    <row r="7" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="92" t="s">
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="90"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="23"/>
-      <c r="AB7" s="63"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="R7" s="74"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="20"/>
+      <c r="AB7" s="52"/>
+    </row>
+    <row r="8" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="93" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="96" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="96" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="82" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="97" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="99"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="34" t="s">
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="89"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="28">
         <v>1</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="29">
         <v>2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="29">
         <v>3</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="30">
         <v>4</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="88" t="s">
+      <c r="J10" s="102"/>
+      <c r="K10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86" t="s">
+      <c r="L10" s="68"/>
+      <c r="M10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88" t="s">
+      <c r="N10" s="69"/>
+      <c r="O10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86" t="s">
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88" t="s">
+      <c r="R10" s="69"/>
+      <c r="S10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86" t="s">
+      <c r="T10" s="68"/>
+      <c r="U10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="87"/>
-      <c r="W10" s="88" t="s">
+      <c r="V10" s="69"/>
+      <c r="W10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86" t="s">
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="Z10" s="87"/>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="39">
+      <c r="A11" s="16"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="31">
         <v>5</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="32">
         <v>7</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="33">
         <v>8</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="20">
+      <c r="J11" s="102"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="17">
         <v>1</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>1</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="20">
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17">
         <v>41</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="17">
         <v>41</v>
       </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20">
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="17">
         <v>81</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="17">
         <v>81</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="20">
+      <c r="V11" s="19"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="17">
         <v>121</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="17">
         <v>121</v>
       </c>
-      <c r="Z11" s="13"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="34" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="34">
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="35">
         <v>3</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="36">
         <v>4</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="20">
+      <c r="J12" s="102"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="17">
         <v>2</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <v>2</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20">
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17">
         <v>42</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="17">
         <v>42</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="20">
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="17">
         <v>82</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="17">
         <v>82</v>
       </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="20">
+      <c r="V12" s="19"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="17">
         <v>122</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="17">
         <v>122</v>
       </c>
-      <c r="Z12" s="13"/>
+      <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="36">
+      <c r="A13" s="16"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="28">
         <v>5</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="29">
         <v>6</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="29">
         <v>7</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="30">
         <v>8</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="20">
+      <c r="J13" s="102"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="17">
         <v>3</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20">
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17">
         <v>43</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="17">
         <v>43</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="20">
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="17">
         <v>83</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="17">
         <v>83</v>
       </c>
-      <c r="V13" s="22"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="20">
+      <c r="V13" s="19"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="17">
         <v>123</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="17">
         <v>123</v>
       </c>
-      <c r="Z13" s="13"/>
+      <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="20">
+      <c r="F14" s="103"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="17">
         <v>4</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <v>4</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20">
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="17">
         <v>44</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <v>44</v>
       </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="20">
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="17">
         <v>84</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <v>84</v>
       </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="20">
+      <c r="V14" s="19"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="17">
         <v>124</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <v>124</v>
       </c>
-      <c r="Z14" s="13"/>
+      <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="70" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="71" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="20">
+      <c r="K15" s="13"/>
+      <c r="L15" s="17">
         <v>5</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="17">
         <v>5</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="20">
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="17">
         <v>45</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="17">
         <v>45</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="20">
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="17">
         <v>85</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="17">
         <v>85</v>
       </c>
-      <c r="V15" s="22"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="20">
+      <c r="V15" s="19"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="17">
         <v>125</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="17">
         <v>125</v>
       </c>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="72"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="83" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="45">
+      <c r="E16" s="80"/>
+      <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="38">
         <v>2</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="38">
         <v>3</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="38">
         <v>4</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="39">
         <v>5</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="20">
+      <c r="K16" s="13"/>
+      <c r="L16" s="17">
         <v>6</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="17">
         <v>6</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="20">
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="17">
         <v>46</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="17">
         <v>46</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="20">
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="17">
         <v>86</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="17">
         <v>86</v>
       </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="20">
+      <c r="V16" s="19"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="17">
         <v>126</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Y16" s="17">
         <v>126</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="20">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="17">
         <v>7</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="17">
         <v>7</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="20">
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="17">
         <v>47</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="17">
         <v>47</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20">
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17">
         <v>87</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="17">
         <v>87</v>
       </c>
-      <c r="V17" s="22"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="20">
+      <c r="V17" s="19"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="17">
         <v>127</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="17">
         <v>127</v>
       </c>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="20">
+      <c r="A18" s="78"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17">
         <v>8</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="17">
         <v>8</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="20">
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="17">
         <v>48</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="17">
         <v>48</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="20">
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="17">
         <v>88</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="17">
         <v>88</v>
       </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="20">
+      <c r="V18" s="19"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="17">
         <v>128</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="17">
         <v>128</v>
       </c>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="20">
+      <c r="A19" s="78"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="17">
         <v>9</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="17">
         <v>9</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="20">
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="17">
         <v>49</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="17">
         <v>49</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="20">
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="17">
         <v>89</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="17">
         <v>89</v>
       </c>
-      <c r="V19" s="22"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="20">
+      <c r="V19" s="19"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="17">
         <v>129</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="17">
         <v>129</v>
       </c>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="20">
+      <c r="A20" s="78"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="17">
         <v>10</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="17">
         <v>10</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="20">
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="17">
         <v>50</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="17">
         <v>50</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="20">
+      <c r="R20" s="19"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="17">
         <v>90</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="17">
         <v>90</v>
       </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="20">
+      <c r="V20" s="19"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="17">
         <v>130</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="17">
         <v>130</v>
       </c>
-      <c r="Z20" s="13"/>
+      <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="20">
+      <c r="A21" s="78"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="17">
         <v>11</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="17">
         <v>11</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="20">
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="17">
         <v>51</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="17">
         <v>51</v>
       </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="20">
+      <c r="R21" s="19"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="17">
         <v>91</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="17">
         <v>91</v>
       </c>
-      <c r="V21" s="22"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="20">
+      <c r="V21" s="19"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="17">
         <v>131</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="17">
         <v>131</v>
       </c>
-      <c r="Z21" s="13"/>
+      <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="20">
+      <c r="A22" s="78"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="17">
         <v>12</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="17">
         <v>12</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="20">
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="17">
         <v>52</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="17">
         <v>52</v>
       </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="20">
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="17">
         <v>92</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="17">
         <v>92</v>
       </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="20">
+      <c r="V22" s="19"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="17">
         <v>132</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="17">
         <v>132</v>
       </c>
-      <c r="Z22" s="13"/>
+      <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="20">
+      <c r="A23" s="78"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="17">
         <v>13</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="17">
         <v>13</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20">
+      <c r="N23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="17">
         <v>53</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="17">
         <v>53</v>
       </c>
-      <c r="R23" s="22"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="20">
+      <c r="R23" s="19"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="17">
         <v>93</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="17">
         <v>93</v>
       </c>
-      <c r="V23" s="22"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="20">
+      <c r="V23" s="19"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="17">
         <v>133</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="17">
         <v>133</v>
       </c>
-      <c r="Z23" s="13"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="20">
+      <c r="A24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="17">
         <v>14</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="17">
         <v>14</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="20">
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="17">
         <v>54</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="17">
         <v>54</v>
       </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="20">
+      <c r="R24" s="19"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="17">
         <v>94</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="17">
         <v>94</v>
       </c>
-      <c r="V24" s="22"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="20">
+      <c r="V24" s="19"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="17">
         <v>134</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="17">
         <v>134</v>
       </c>
-      <c r="Z24" s="13"/>
+      <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="20">
+      <c r="A25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="17">
         <v>15</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="17">
         <v>15</v>
       </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="20">
+      <c r="N25" s="19"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="17">
         <v>55</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="17">
         <v>55</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="20">
+      <c r="R25" s="19"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="17">
         <v>95</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="17">
         <v>95</v>
       </c>
-      <c r="V25" s="22"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="20">
+      <c r="V25" s="19"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="17">
         <v>135</v>
       </c>
-      <c r="Y25" s="20">
+      <c r="Y25" s="17">
         <v>135</v>
       </c>
-      <c r="Z25" s="13"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="20">
+      <c r="A26" s="78"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="17">
         <v>16</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="17">
         <v>16</v>
       </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="20">
+      <c r="N26" s="19"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="17">
         <v>56</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="17">
         <v>56</v>
       </c>
-      <c r="R26" s="22"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="20">
+      <c r="R26" s="19"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="17">
         <v>96</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="17">
         <v>96</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="20">
+      <c r="V26" s="19"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="17">
         <v>136</v>
       </c>
-      <c r="Y26" s="20">
+      <c r="Y26" s="17">
         <v>136</v>
       </c>
-      <c r="Z26" s="13"/>
+      <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="20">
+      <c r="A27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="17">
         <v>17</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="17">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="20">
+      <c r="N27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="17">
         <v>57</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="17">
         <v>57</v>
       </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="20">
+      <c r="R27" s="19"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="17">
         <v>97</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="17">
         <v>97</v>
       </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="20">
+      <c r="V27" s="19"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="17">
         <v>137</v>
       </c>
-      <c r="Y27" s="20">
+      <c r="Y27" s="17">
         <v>137</v>
       </c>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="20">
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="17">
         <v>18</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="17">
         <v>18</v>
       </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="20">
+      <c r="N28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17">
         <v>58</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="17">
         <v>58</v>
       </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="20">
+      <c r="R28" s="19"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="17">
         <v>98</v>
       </c>
-      <c r="U28" s="20">
+      <c r="U28" s="17">
         <v>98</v>
       </c>
-      <c r="V28" s="22"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="20">
+      <c r="V28" s="19"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="17">
         <v>138</v>
       </c>
-      <c r="Y28" s="20">
+      <c r="Y28" s="17">
         <v>138</v>
       </c>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79" t="s">
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="20">
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="17">
         <v>19</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <v>19</v>
       </c>
-      <c r="N29" s="22"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="20">
+      <c r="N29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="17">
         <v>59</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <v>59</v>
       </c>
-      <c r="R29" s="22"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="20">
+      <c r="R29" s="19"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="17">
         <v>99</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <v>99</v>
       </c>
-      <c r="V29" s="22"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="20">
+      <c r="V29" s="19"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="17">
         <v>139</v>
       </c>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <v>139</v>
       </c>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="82" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="20">
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="17">
         <v>20</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="17">
         <v>20</v>
       </c>
-      <c r="N30" s="22"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="20">
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="17">
         <v>60</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q30" s="17">
         <v>60</v>
       </c>
-      <c r="R30" s="22"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="20">
+      <c r="R30" s="19"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="17">
         <v>100</v>
       </c>
-      <c r="U30" s="20">
+      <c r="U30" s="17">
         <v>100</v>
       </c>
-      <c r="V30" s="22"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="20">
+      <c r="V30" s="19"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="17">
         <v>140</v>
       </c>
-      <c r="Y30" s="20">
+      <c r="Y30" s="17">
         <v>140</v>
       </c>
-      <c r="Z30" s="13"/>
+      <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="34" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="28">
         <v>1</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="29">
         <v>2</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="29">
         <v>3</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="30">
         <v>4</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="20">
+      <c r="J31" s="102"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="17">
         <v>21</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="17">
         <v>21</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="20">
+      <c r="N31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="17">
         <v>61</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="17">
         <v>61</v>
       </c>
-      <c r="R31" s="22"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="20">
+      <c r="R31" s="19"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="17">
         <v>101</v>
       </c>
-      <c r="U31" s="20">
+      <c r="U31" s="17">
         <v>101</v>
       </c>
-      <c r="V31" s="22"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="20">
+      <c r="V31" s="19"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="17">
         <v>141</v>
       </c>
-      <c r="Y31" s="20">
+      <c r="Y31" s="17">
         <v>141</v>
       </c>
-      <c r="Z31" s="13"/>
+      <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="39">
+      <c r="A32" s="16"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="31">
         <v>5</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="32">
         <v>6</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="32">
         <v>7</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="33">
         <v>8</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="20">
+      <c r="J32" s="102"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="17">
         <v>22</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="17">
         <v>22</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="20">
+      <c r="N32" s="19"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="17">
         <v>62</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="17">
         <v>62</v>
       </c>
-      <c r="R32" s="22"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="20">
+      <c r="R32" s="19"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="17">
         <v>102</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="17">
         <v>102</v>
       </c>
-      <c r="V32" s="22"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="20">
+      <c r="V32" s="19"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="17">
         <v>142</v>
       </c>
-      <c r="Y32" s="20">
+      <c r="Y32" s="17">
         <v>142</v>
       </c>
-      <c r="Z32" s="13"/>
+      <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="34" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="34">
         <v>1</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="35">
         <v>2</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="35">
         <v>3</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="36">
         <v>4</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="20">
+      <c r="J33" s="102"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="17">
         <v>23</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="17">
         <v>23</v>
       </c>
-      <c r="N33" s="22"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="20">
+      <c r="N33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="17">
         <v>63</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="17">
         <v>63</v>
       </c>
-      <c r="R33" s="22"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="20">
+      <c r="R33" s="19"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="17">
         <v>103</v>
       </c>
-      <c r="U33" s="20">
+      <c r="U33" s="17">
         <v>103</v>
       </c>
-      <c r="V33" s="22"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="20">
+      <c r="V33" s="19"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="17">
         <v>143</v>
       </c>
-      <c r="Y33" s="20">
+      <c r="Y33" s="17">
         <v>143</v>
       </c>
-      <c r="Z33" s="13"/>
+      <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="36">
+      <c r="A34" s="16"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="28">
         <v>5</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="29">
         <v>6</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="29">
         <v>7</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="30">
         <v>8</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="20">
+      <c r="J34" s="102"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="17">
         <v>24</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="17">
         <v>24</v>
       </c>
-      <c r="N34" s="22"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="20">
+      <c r="N34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="17">
         <v>64</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="17">
         <v>64</v>
       </c>
-      <c r="R34" s="22"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="20">
+      <c r="R34" s="19"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="17">
         <v>104</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="17">
         <v>104</v>
       </c>
-      <c r="V34" s="22"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="20">
+      <c r="V34" s="19"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="17">
         <v>144</v>
       </c>
-      <c r="Y34" s="20">
+      <c r="Y34" s="17">
         <v>144</v>
       </c>
-      <c r="Z34" s="13"/>
+      <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="20">
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="17">
         <v>25</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="17">
         <v>25</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="20">
+      <c r="N35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="17">
         <v>65</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="17">
         <v>65</v>
       </c>
-      <c r="R35" s="22"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="20">
+      <c r="R35" s="19"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="17">
         <v>105</v>
       </c>
-      <c r="U35" s="20">
+      <c r="U35" s="17">
         <v>105</v>
       </c>
-      <c r="V35" s="22"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="20">
+      <c r="V35" s="19"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="17">
         <v>145</v>
       </c>
-      <c r="Y35" s="20">
+      <c r="Y35" s="17">
         <v>145</v>
       </c>
-      <c r="Z35" s="13"/>
+      <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="70" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="71" t="s">
         <v>64</v>
       </c>
       <c r="G36" s="72"/>
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
       <c r="J36" s="72"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="20">
+      <c r="K36" s="13"/>
+      <c r="L36" s="17">
         <v>26</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="17">
         <v>26</v>
       </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="20">
+      <c r="N36" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="17">
         <v>66</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q36" s="17">
         <v>66</v>
       </c>
-      <c r="R36" s="22"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="20">
+      <c r="R36" s="19"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="17">
         <v>106</v>
       </c>
-      <c r="U36" s="20">
+      <c r="U36" s="17">
         <v>106</v>
       </c>
-      <c r="V36" s="22"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="20">
+      <c r="V36" s="19"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="17">
         <v>146</v>
       </c>
-      <c r="Y36" s="20">
+      <c r="Y36" s="17">
         <v>146</v>
       </c>
-      <c r="Z36" s="13"/>
+      <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="72"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="83" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="45">
+      <c r="E37" s="80"/>
+      <c r="F37" s="37">
         <v>1</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="38">
         <v>2</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="38">
         <v>3</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="38">
         <v>4</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="39">
         <v>5</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="20">
+      <c r="K37" s="13"/>
+      <c r="L37" s="17">
         <v>27</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="17">
         <v>27</v>
       </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="20">
+      <c r="N37" s="19"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="17">
         <v>67</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="17">
         <v>67</v>
       </c>
-      <c r="R37" s="22"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="20">
+      <c r="R37" s="19"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="17">
         <v>107</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="17">
         <v>107</v>
       </c>
-      <c r="V37" s="22"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="20">
+      <c r="V37" s="19"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="17">
         <v>147</v>
       </c>
-      <c r="Y37" s="20">
+      <c r="Y37" s="17">
         <v>147</v>
       </c>
-      <c r="Z37" s="13"/>
+      <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="16" t="s">
+      <c r="B38" s="77"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="20">
+      <c r="F38" s="15"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="17">
         <v>28</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="17">
         <v>28</v>
       </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="20">
+      <c r="N38" s="19"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="17">
         <v>68</v>
       </c>
-      <c r="Q38" s="20">
+      <c r="Q38" s="17">
         <v>68</v>
       </c>
-      <c r="R38" s="22"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="20">
+      <c r="R38" s="19"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="17">
         <v>108</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U38" s="17">
         <v>108</v>
       </c>
-      <c r="V38" s="22"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="20">
+      <c r="V38" s="19"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="17">
         <v>148</v>
       </c>
-      <c r="Y38" s="20">
+      <c r="Y38" s="17">
         <v>148</v>
       </c>
-      <c r="Z38" s="13"/>
+      <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="20">
+      <c r="A39" s="78"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="17">
         <v>29</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="17">
         <v>29</v>
       </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="20">
+      <c r="N39" s="19"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="17">
         <v>69</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="17">
         <v>69</v>
       </c>
-      <c r="R39" s="22"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="20">
+      <c r="R39" s="19"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="17">
         <v>109</v>
       </c>
-      <c r="U39" s="20">
+      <c r="U39" s="17">
         <v>109</v>
       </c>
-      <c r="V39" s="22"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="20">
+      <c r="V39" s="19"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="17">
         <v>149</v>
       </c>
-      <c r="Y39" s="20">
+      <c r="Y39" s="17">
         <v>149</v>
       </c>
-      <c r="Z39" s="13"/>
+      <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="20">
+      <c r="A40" s="78"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="17">
         <v>30</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="17">
         <v>30</v>
       </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="20">
+      <c r="N40" s="19"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="17">
         <v>70</v>
       </c>
-      <c r="Q40" s="20">
+      <c r="Q40" s="17">
         <v>70</v>
       </c>
-      <c r="R40" s="22"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="20">
+      <c r="R40" s="19"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="17">
         <v>110</v>
       </c>
-      <c r="U40" s="20">
+      <c r="U40" s="17">
         <v>110</v>
       </c>
-      <c r="V40" s="22"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="20">
+      <c r="V40" s="19"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="17">
         <v>150</v>
       </c>
-      <c r="Y40" s="20">
+      <c r="Y40" s="17">
         <v>150</v>
       </c>
-      <c r="Z40" s="13"/>
+      <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="20">
+      <c r="A41" s="78"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="17">
         <v>31</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="17">
         <v>31</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="20">
+      <c r="N41" s="19"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="17">
         <v>71</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="Q41" s="17">
         <v>71</v>
       </c>
-      <c r="R41" s="22"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="20">
+      <c r="R41" s="19"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="17">
         <v>111</v>
       </c>
-      <c r="U41" s="20">
+      <c r="U41" s="17">
         <v>111</v>
       </c>
-      <c r="V41" s="22"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="20">
+      <c r="V41" s="19"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="17">
         <v>151</v>
       </c>
-      <c r="Y41" s="20">
+      <c r="Y41" s="17">
         <v>151</v>
       </c>
-      <c r="Z41" s="13"/>
+      <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="20">
+      <c r="A42" s="78"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="17">
         <v>32</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="17">
         <v>32</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="20">
+      <c r="N42" s="19"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="17">
         <v>72</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="Q42" s="17">
         <v>72</v>
       </c>
-      <c r="R42" s="22"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="20">
+      <c r="R42" s="19"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="17">
         <v>112</v>
       </c>
-      <c r="U42" s="20">
+      <c r="U42" s="17">
         <v>112</v>
       </c>
-      <c r="V42" s="22"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="20">
+      <c r="V42" s="19"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="17">
         <v>152</v>
       </c>
-      <c r="Y42" s="20">
+      <c r="Y42" s="17">
         <v>152</v>
       </c>
-      <c r="Z42" s="13"/>
+      <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="20">
+      <c r="A43" s="78"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="17">
         <v>33</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="17">
         <v>33</v>
       </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="20">
+      <c r="N43" s="19"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="17">
         <v>73</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="17">
         <v>73</v>
       </c>
-      <c r="R43" s="22"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="20">
+      <c r="R43" s="19"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="17">
         <v>113</v>
       </c>
-      <c r="U43" s="20">
+      <c r="U43" s="17">
         <v>113</v>
       </c>
-      <c r="V43" s="22"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="20">
+      <c r="V43" s="19"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="17">
         <v>153</v>
       </c>
-      <c r="Y43" s="20">
+      <c r="Y43" s="17">
         <v>153</v>
       </c>
-      <c r="Z43" s="13"/>
+      <c r="Z43" s="12"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="20">
+      <c r="A44" s="78"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="17">
         <v>34</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="17">
         <v>34</v>
       </c>
-      <c r="N44" s="22"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="20">
+      <c r="N44" s="19"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="17">
         <v>74</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="Q44" s="17">
         <v>74</v>
       </c>
-      <c r="R44" s="22"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="20">
+      <c r="R44" s="19"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="17">
         <v>114</v>
       </c>
-      <c r="U44" s="20">
+      <c r="U44" s="17">
         <v>114</v>
       </c>
-      <c r="V44" s="22"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="20">
+      <c r="V44" s="19"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="17">
         <v>154</v>
       </c>
-      <c r="Y44" s="20">
+      <c r="Y44" s="17">
         <v>154</v>
       </c>
-      <c r="Z44" s="13"/>
+      <c r="Z44" s="12"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="20">
+      <c r="A45" s="78"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="17">
         <v>35</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="17">
         <v>35</v>
       </c>
-      <c r="N45" s="22"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="20">
+      <c r="N45" s="19"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="17">
         <v>75</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="17">
         <v>75</v>
       </c>
-      <c r="R45" s="22"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="20">
+      <c r="R45" s="19"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="17">
         <v>115</v>
       </c>
-      <c r="U45" s="20">
+      <c r="U45" s="17">
         <v>115</v>
       </c>
-      <c r="V45" s="22"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="20">
+      <c r="V45" s="19"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="17">
         <v>155</v>
       </c>
-      <c r="Y45" s="20">
+      <c r="Y45" s="17">
         <v>155</v>
       </c>
-      <c r="Z45" s="13"/>
+      <c r="Z45" s="12"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="20">
+      <c r="A46" s="78"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="17">
         <v>36</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="17">
         <v>36</v>
       </c>
-      <c r="N46" s="22"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="20">
+      <c r="N46" s="19"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="17">
         <v>76</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="Q46" s="17">
         <v>76</v>
       </c>
-      <c r="R46" s="22"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="20">
+      <c r="R46" s="19"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="17">
         <v>116</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="17">
         <v>116</v>
       </c>
-      <c r="V46" s="22"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="20">
+      <c r="V46" s="19"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="17">
         <v>156</v>
       </c>
-      <c r="Y46" s="20">
+      <c r="Y46" s="17">
         <v>156</v>
       </c>
-      <c r="Z46" s="13"/>
+      <c r="Z46" s="12"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="20">
+      <c r="A47" s="78"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="17">
         <v>37</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="17">
         <v>37</v>
       </c>
-      <c r="N47" s="22"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="20">
+      <c r="N47" s="19"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="17">
         <v>77</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="Q47" s="17">
         <v>77</v>
       </c>
-      <c r="R47" s="22"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="20">
+      <c r="R47" s="19"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="17">
         <v>117</v>
       </c>
-      <c r="U47" s="20">
+      <c r="U47" s="17">
         <v>117</v>
       </c>
-      <c r="V47" s="22"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="20">
+      <c r="V47" s="19"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="17">
         <v>157</v>
       </c>
-      <c r="Y47" s="20">
+      <c r="Y47" s="17">
         <v>157</v>
       </c>
-      <c r="Z47" s="13"/>
+      <c r="Z47" s="12"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="20">
+      <c r="A48" s="78"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="17">
         <v>38</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="17">
         <v>38</v>
       </c>
-      <c r="N48" s="22"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="20">
+      <c r="N48" s="19"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="17">
         <v>78</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="Q48" s="17">
         <v>78</v>
       </c>
-      <c r="R48" s="22"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="20">
+      <c r="R48" s="19"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="17">
         <v>118</v>
       </c>
-      <c r="U48" s="20">
+      <c r="U48" s="17">
         <v>118</v>
       </c>
-      <c r="V48" s="22"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="20">
+      <c r="V48" s="19"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="17">
         <v>158</v>
       </c>
-      <c r="Y48" s="20">
+      <c r="Y48" s="17">
         <v>158</v>
       </c>
-      <c r="Z48" s="13"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="Z48" s="12"/>
+    </row>
+    <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="84"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="20">
+      <c r="J49" s="47"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="17">
         <v>39</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="17">
         <v>39</v>
       </c>
-      <c r="N49" s="22"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="20">
+      <c r="N49" s="19"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="17">
         <v>79</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="Q49" s="17">
         <v>79</v>
       </c>
-      <c r="R49" s="22"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="20">
+      <c r="R49" s="19"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="17">
         <v>119</v>
       </c>
-      <c r="U49" s="20">
+      <c r="U49" s="17">
         <v>119</v>
       </c>
-      <c r="V49" s="22"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="20">
+      <c r="V49" s="19"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="17">
         <v>159</v>
       </c>
-      <c r="Y49" s="20">
+      <c r="Y49" s="17">
         <v>159</v>
       </c>
-      <c r="Z49" s="13"/>
-    </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67" t="s">
+      <c r="Z49" s="12"/>
+    </row>
+    <row r="50" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="53">
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="44">
         <v>40</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="44">
         <v>40</v>
       </c>
-      <c r="N50" s="51"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="53">
+      <c r="N50" s="43"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="44">
         <v>80</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q50" s="44">
         <v>80</v>
       </c>
-      <c r="R50" s="51"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="53">
+      <c r="R50" s="43"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="44">
         <v>120</v>
       </c>
-      <c r="U50" s="53">
+      <c r="U50" s="44">
         <v>120</v>
       </c>
-      <c r="V50" s="51"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="53">
+      <c r="V50" s="43"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="44">
         <v>160</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y50" s="44">
         <v>160</v>
       </c>
-      <c r="Z50" s="55"/>
+      <c r="Z50" s="46"/>
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="78" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="49" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="48" t="s">
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="86"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="106"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="49" t="s">
+      <c r="D52" s="77"/>
+      <c r="E52" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="48" t="s">
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="67" t="s">
+      <c r="I52" s="81"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="75" t="s">
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-      <c r="U52" s="75" t="s">
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="10"/>
-    </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="67" t="s">
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+      <c r="Z52" s="12"/>
+    </row>
+    <row r="53" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="49" t="s">
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="48" t="s">
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="76" t="s">
+      <c r="I53" s="110"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="75"/>
-      <c r="X53" s="75"/>
-      <c r="Y53" s="75"/>
-      <c r="Z53" s="10"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="112"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="110"/>
+      <c r="W53" s="110"/>
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
+      <c r="Z53" s="113"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
@@ -9016,43 +7733,62 @@
       <c r="Z61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="115">
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="K51:Z51"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
@@ -9077,59 +7813,42 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\NSBL\runsheet-script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E7C7F-C646-40C1-9635-A0BA16B144BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50657D5-698D-4F8C-934F-2239FA200E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53925" yWindow="0" windowWidth="22875" windowHeight="21000" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="22860" yWindow="0" windowWidth="31065" windowHeight="21000" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -1343,189 +1343,189 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1648,8 +1648,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="3249059"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="3227699"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -1887,8 +1887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="3409480"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="3393351"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2075,8 +2075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="3569901"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="3559003"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2263,8 +2263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="3730323"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="3724655"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2451,8 +2451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="3890744"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="3890308"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2639,8 +2639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="4051165"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="4055960"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -2827,8 +2827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="4211586"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="4221612"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3015,8 +3015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="4372007"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="4387264"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3203,8 +3203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="6888612"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="6930025"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3391,8 +3391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="6728191"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="6764373"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3579,8 +3579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7049033"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7095677"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3767,8 +3767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7209454"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7261329"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -3955,8 +3955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7369875"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7426982"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4143,8 +4143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7530296"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7592634"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4331,8 +4331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7690717"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7758286"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -4519,8 +4519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="300302" y="7851138"/>
-          <a:ext cx="406655" cy="108000"/>
+          <a:off x="306187" y="7923938"/>
+          <a:ext cx="406001" cy="108000"/>
           <a:chOff x="408650" y="3345734"/>
           <a:chExt cx="322695" cy="108000"/>
         </a:xfrm>
@@ -5256,8 +5256,8 @@
   </sheetPr>
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AA4:AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5277,299 +5277,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
       <c r="Z1" s="50"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
       <c r="Z2" s="51"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="64" t="s">
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
       <c r="Z3" s="51"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="65" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="65" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="66" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="66" t="s">
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="67" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="67" t="s">
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="73" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="76" t="s">
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
       <c r="Z7" s="20"/>
       <c r="AB7" s="52"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="58" t="s">
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="58" t="s">
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="59" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="89"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="116"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="71"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="77"/>
-      <c r="D10" s="102"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="26" t="s">
         <v>59</v>
       </c>
@@ -5585,46 +5585,46 @@
       <c r="I10" s="30">
         <v>4</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="70" t="s">
+      <c r="J10" s="64"/>
+      <c r="K10" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68" t="s">
+      <c r="L10" s="107"/>
+      <c r="M10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70" t="s">
+      <c r="N10" s="108"/>
+      <c r="O10" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68" t="s">
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="69"/>
-      <c r="S10" s="70" t="s">
+      <c r="R10" s="108"/>
+      <c r="S10" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68" t="s">
+      <c r="T10" s="107"/>
+      <c r="U10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="69"/>
-      <c r="W10" s="70" t="s">
+      <c r="V10" s="108"/>
+      <c r="W10" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68" t="s">
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="Z10" s="69"/>
+      <c r="Z10" s="108"/>
     </row>
     <row r="11" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="71"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="77"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="31">
         <v>5</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="I11" s="33">
         <v>8</v>
       </c>
-      <c r="J11" s="102"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="13"/>
       <c r="L11" s="17">
         <v>1</v>
@@ -5673,9 +5673,9 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="77"/>
-      <c r="D12" s="102"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="26" t="s">
         <v>62</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="I12" s="36">
         <v>4</v>
       </c>
-      <c r="J12" s="102"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="13"/>
       <c r="L12" s="17">
         <v>2</v>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="13" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="71"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="77"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="28">
         <v>5</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="I13" s="30">
         <v>8</v>
       </c>
-      <c r="J13" s="102"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="13"/>
       <c r="L13" s="17">
         <v>3</v>
@@ -5779,17 +5779,17 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="71"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="77"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="13"/>
       <c r="L14" s="17">
         <v>4</v>
@@ -5825,17 +5825,17 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="72"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="71" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="13"/>
       <c r="L15" s="17">
         <v>5</v>
@@ -5873,12 +5873,12 @@
       <c r="A16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="77"/>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="37">
         <v>1</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="77"/>
-      <c r="C17" s="71"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="15" t="s">
         <v>68</v>
@@ -5978,7 +5978,7 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="77"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -6022,7 +6022,7 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="71"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="77"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -6066,7 +6066,7 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="77"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -6110,7 +6110,7 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="77"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -6154,7 +6154,7 @@
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="77"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -6198,7 +6198,7 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="71"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="77"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -6242,7 +6242,7 @@
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="71"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="77"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -6286,7 +6286,7 @@
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="71"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="77"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -6330,7 +6330,7 @@
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="77"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -6374,7 +6374,7 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="71"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="77"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6416,10 +6416,10 @@
       <c r="Z27" s="12"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="80"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="11"/>
@@ -6459,21 +6459,21 @@
       </c>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="90" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="13"/>
       <c r="L29" s="17">
         <v>19</v>
@@ -6508,19 +6508,19 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="59" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
       <c r="J30" s="27"/>
       <c r="K30" s="13"/>
       <c r="L30" s="17">
@@ -6557,9 +6557,9 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="71"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="102"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="26" t="s">
         <v>59</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="I31" s="30">
         <v>4</v>
       </c>
-      <c r="J31" s="102"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="13"/>
       <c r="L31" s="17">
         <v>21</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="71"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="31">
         <v>5</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="I32" s="33">
         <v>8</v>
       </c>
-      <c r="J32" s="102"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="13"/>
       <c r="L32" s="17">
         <v>22</v>
@@ -6663,9 +6663,9 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="71"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="102"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="26" t="s">
         <v>62</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="I33" s="36">
         <v>4</v>
       </c>
-      <c r="J33" s="102"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="13"/>
       <c r="L33" s="17">
         <v>23</v>
@@ -6717,10 +6717,10 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="71"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="28">
         <v>5</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="I34" s="30">
         <v>8</v>
       </c>
-      <c r="J34" s="102"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="13"/>
       <c r="L34" s="17">
         <v>24</v>
@@ -6769,17 +6769,17 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="71"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="103"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="13"/>
       <c r="L35" s="17">
         <v>25</v>
@@ -6815,17 +6815,17 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
-      <c r="B36" s="72"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="71" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
       <c r="K36" s="13"/>
       <c r="L36" s="17">
         <v>26</v>
@@ -6863,12 +6863,12 @@
       <c r="A37" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="37">
         <v>1</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>70</v>
       </c>
       <c r="B38" s="77"/>
-      <c r="C38" s="71"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="77"/>
       <c r="E38" s="15" t="s">
         <v>71</v>
@@ -6968,7 +6968,7 @@
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="77"/>
-      <c r="C39" s="71"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="77"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -7012,7 +7012,7 @@
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="77"/>
-      <c r="C40" s="71"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="77"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -7056,7 +7056,7 @@
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="71"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="77"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -7100,7 +7100,7 @@
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="77"/>
-      <c r="C42" s="71"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="77"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -7144,7 +7144,7 @@
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="77"/>
-      <c r="C43" s="71"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="77"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -7188,7 +7188,7 @@
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="77"/>
-      <c r="C44" s="71"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="77"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -7232,7 +7232,7 @@
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="77"/>
-      <c r="C45" s="71"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="77"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -7276,7 +7276,7 @@
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="77"/>
-      <c r="C46" s="71"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="77"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -7320,7 +7320,7 @@
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="77"/>
-      <c r="C47" s="71"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="77"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -7364,7 +7364,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="77"/>
-      <c r="C48" s="71"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="77"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -7406,10 +7406,10 @@
       <c r="Z48" s="12"/>
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="80"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="11"/>
       <c r="F49" s="53"/>
       <c r="G49" s="11"/>
@@ -7450,18 +7450,18 @@
       <c r="Z49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="72"/>
       <c r="K50" s="48"/>
       <c r="L50" s="44">
         <v>40</v>
@@ -7499,111 +7499,111 @@
       <c r="A51" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="77"/>
       <c r="E51" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
       <c r="H51" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="86"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="86"/>
-      <c r="W51" s="86"/>
-      <c r="X51" s="86"/>
-      <c r="Y51" s="86"/>
-      <c r="Z51" s="106"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="96"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="77"/>
       <c r="E52" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="105" t="s">
+      <c r="I52" s="90"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="81" t="s">
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81" t="s">
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="90"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="90"/>
       <c r="Z52" s="12"/>
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="109" t="s">
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="111" t="s">
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="110"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="116" t="s">
+      <c r="I53" s="86"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="L53" s="112"/>
-      <c r="M53" s="112"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="112"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="113"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="69"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
@@ -7734,6 +7734,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="K51:Z51"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="E50:J50"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="B33:C33"/>
@@ -7758,97 +7849,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="K51:Z51"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
